--- a/England - submitted 19Jun25/incd_tbl.xlsx
+++ b/England - submitted 19Jun25/incd_tbl.xlsx
@@ -90,1496 +90,1496 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>8.3305136102757054</v>
+        <v>8.253314953115396</v>
       </c>
       <c r="B1" s="0">
-        <v>7.7083703132432735</v>
+        <v>7.6341941830201048</v>
       </c>
       <c r="C1" s="0">
-        <v>7.0909974537878178</v>
+        <v>7.0628841664915774</v>
       </c>
       <c r="D1" s="0">
-        <v>6.7212337145421674</v>
+        <v>6.7044750360816137</v>
       </c>
       <c r="E1" s="0">
-        <v>6.5387023071914117</v>
+        <v>6.5435076665920242</v>
       </c>
       <c r="F1" s="0">
-        <v>6.3515932321032036</v>
+        <v>6.3753182675138822</v>
       </c>
       <c r="G1" s="0">
-        <v>6.1734853271970378</v>
+        <v>6.2062712739836172</v>
       </c>
       <c r="H1" s="0">
-        <v>6.5856723590476385</v>
+        <v>6.6200819692684512</v>
       </c>
       <c r="I1" s="0">
-        <v>7.4620509457874817</v>
+        <v>7.5006355547144432</v>
       </c>
       <c r="J1" s="0">
-        <v>8.2691333456932838</v>
+        <v>8.0986237437395392</v>
       </c>
       <c r="K1" s="0">
-        <v>8.798319557315617</v>
+        <v>7.7658394074891985</v>
       </c>
       <c r="L1" s="0">
-        <v>9.2159875718587898</v>
+        <v>7.6466457534421064</v>
       </c>
       <c r="M1" s="0">
-        <v>9.5298295867824407</v>
+        <v>7.6068660830815169</v>
       </c>
       <c r="N1" s="0">
-        <v>9.7612922835405911</v>
+        <v>7.5763800960320271</v>
       </c>
       <c r="O1" s="0">
-        <v>9.9357036569377701</v>
+        <v>7.5494745774599856</v>
       </c>
       <c r="P1" s="0">
-        <v>10.064554050874897</v>
+        <v>7.5265564348855163</v>
       </c>
       <c r="Q1" s="0">
-        <v>10.161076502248161</v>
+        <v>7.5074701741685939</v>
       </c>
       <c r="R1" s="0">
-        <v>10.237761748345488</v>
+        <v>7.4917024961797711</v>
       </c>
       <c r="S1" s="0">
-        <v>10.300207164557218</v>
+        <v>7.4786973670161103</v>
       </c>
       <c r="T1" s="0">
-        <v>10.346083532161776</v>
+        <v>7.4679506598627432</v>
       </c>
       <c r="U1" s="0">
-        <v>10.379094931785369</v>
+        <v>7.4590382586206525</v>
       </c>
       <c r="V1" s="0">
-        <v>10.402167699441012</v>
+        <v>7.4516108123031213</v>
       </c>
       <c r="W1" s="0">
-        <v>10.417606773267199</v>
+        <v>7.4453857459967807</v>
       </c>
       <c r="X1" s="0">
-        <v>10.427222986335305</v>
+        <v>7.4401342459016169</v>
       </c>
       <c r="Y1" s="0">
-        <v>10.432434306934361</v>
+        <v>7.4356716766577478</v>
       </c>
       <c r="Z1" s="0">
-        <v>10.434347477076873</v>
+        <v>7.4318503766939514</v>
       </c>
       <c r="AA1" s="0">
-        <v>10.433824002789786</v>
+        <v>7.4273179712973665</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>8.8384805554436952</v>
+        <v>8.8551195381442778</v>
       </c>
       <c r="B2" s="0">
-        <v>8.206951382243826</v>
+        <v>8.1742627771829568</v>
       </c>
       <c r="C2" s="0">
-        <v>7.5908689687462232</v>
+        <v>7.583352837717265</v>
       </c>
       <c r="D2" s="0">
-        <v>7.2071685202843367</v>
+        <v>7.1677429123056804</v>
       </c>
       <c r="E2" s="0">
-        <v>7.0460543763271088</v>
+        <v>7.000523461717961</v>
       </c>
       <c r="F2" s="0">
-        <v>6.8516135473677613</v>
+        <v>6.8195654320421211</v>
       </c>
       <c r="G2" s="0">
-        <v>6.6732210230065565</v>
+        <v>6.648519779644662</v>
       </c>
       <c r="H2" s="0">
-        <v>7.1627953371245194</v>
+        <v>7.0703260321682384</v>
       </c>
       <c r="I2" s="0">
-        <v>8.1203953733056391</v>
+        <v>7.9685512228791149</v>
       </c>
       <c r="J2" s="0">
-        <v>9.0053536425555549</v>
+        <v>8.6602776527190635</v>
       </c>
       <c r="K2" s="0">
-        <v>9.6162067722312816</v>
+        <v>8.3979909044843239</v>
       </c>
       <c r="L2" s="0">
-        <v>10.080894361552978</v>
+        <v>8.2900089031251376</v>
       </c>
       <c r="M2" s="0">
-        <v>10.483156919016324</v>
+        <v>8.2223990668471263</v>
       </c>
       <c r="N2" s="0">
-        <v>10.788368976155647</v>
+        <v>8.1630043963940597</v>
       </c>
       <c r="O2" s="0">
-        <v>11.032639702193348</v>
+        <v>8.113148840003177</v>
       </c>
       <c r="P2" s="0">
-        <v>11.219119354244381</v>
+        <v>8.0720161627665217</v>
       </c>
       <c r="Q2" s="0">
-        <v>11.358767543499178</v>
+        <v>8.0397280149581185</v>
       </c>
       <c r="R2" s="0">
-        <v>11.462085051493412</v>
+        <v>8.0256519630642647</v>
       </c>
       <c r="S2" s="0">
-        <v>11.540583492008816</v>
+        <v>8.0148384780969906</v>
       </c>
       <c r="T2" s="0">
-        <v>11.590427993508415</v>
+        <v>8.0065280403367929</v>
       </c>
       <c r="U2" s="0">
-        <v>11.620445594602435</v>
+        <v>8.0001446804979714</v>
       </c>
       <c r="V2" s="0">
-        <v>11.657824119732245</v>
+        <v>7.9952508754533893</v>
       </c>
       <c r="W2" s="0">
-        <v>11.676381708905298</v>
+        <v>7.9915135754147366</v>
       </c>
       <c r="X2" s="0">
-        <v>11.698633340740793</v>
+        <v>7.9886761212119834</v>
       </c>
       <c r="Y2" s="0">
-        <v>11.690238931728846</v>
+        <v>7.9865415723703519</v>
       </c>
       <c r="Z2" s="0">
-        <v>11.685988025503876</v>
+        <v>7.9849585658818914</v>
       </c>
       <c r="AA2" s="0">
-        <v>11.694196268579701</v>
+        <v>7.983809172050738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>9.4262944712936108</v>
+        <v>9.5055595496441736</v>
       </c>
       <c r="B3" s="0">
-        <v>8.8443663246109665</v>
+        <v>8.9081310755130065</v>
       </c>
       <c r="C3" s="0">
-        <v>8.3238779159872305</v>
+        <v>8.3473299741028217</v>
       </c>
       <c r="D3" s="0">
-        <v>7.9752171471327138</v>
+        <v>7.9853054229151113</v>
       </c>
       <c r="E3" s="0">
-        <v>7.8047211656075817</v>
+        <v>7.8113472838402016</v>
       </c>
       <c r="F3" s="0">
-        <v>7.6182932795045275</v>
+        <v>7.6246707452298041</v>
       </c>
       <c r="G3" s="0">
-        <v>7.4327492571322047</v>
+        <v>7.4317735579081923</v>
       </c>
       <c r="H3" s="0">
-        <v>7.9168510794760856</v>
+        <v>7.8225713089141618</v>
       </c>
       <c r="I3" s="0">
-        <v>8.9577540234173334</v>
+        <v>8.6914134329271775</v>
       </c>
       <c r="J3" s="0">
-        <v>9.9510907323573541</v>
+        <v>9.2968884255954318</v>
       </c>
       <c r="K3" s="0">
-        <v>10.631092075721583</v>
+        <v>8.9709952412460901</v>
       </c>
       <c r="L3" s="0">
-        <v>11.186281914639659</v>
+        <v>8.8609256316688079</v>
       </c>
       <c r="M3" s="0">
-        <v>11.633505662991229</v>
+        <v>8.833445771087499</v>
       </c>
       <c r="N3" s="0">
-        <v>11.995623663297014</v>
+        <v>8.8132389685470116</v>
       </c>
       <c r="O3" s="0">
-        <v>12.286312881590987</v>
+        <v>8.7931500812999968</v>
       </c>
       <c r="P3" s="0">
-        <v>12.5140682460995</v>
+        <v>8.7740832518047842</v>
       </c>
       <c r="Q3" s="0">
-        <v>12.690873882888813</v>
+        <v>8.756664486287578</v>
       </c>
       <c r="R3" s="0">
-        <v>12.826765484103749</v>
+        <v>8.7410306625671126</v>
       </c>
       <c r="S3" s="0">
-        <v>12.931724704118821</v>
+        <v>8.7271120060275038</v>
       </c>
       <c r="T3" s="0">
-        <v>13.014195067321612</v>
+        <v>8.7147563654389621</v>
       </c>
       <c r="U3" s="0">
-        <v>13.076890353000895</v>
+        <v>8.7037921419433193</v>
       </c>
       <c r="V3" s="0">
-        <v>13.117828546174437</v>
+        <v>8.6940486680991356</v>
       </c>
       <c r="W3" s="0">
-        <v>13.136127679772496</v>
+        <v>8.6853689289456923</v>
       </c>
       <c r="X3" s="0">
-        <v>13.153585713598638</v>
+        <v>8.6776120029545325</v>
       </c>
       <c r="Y3" s="0">
-        <v>13.16547940513359</v>
+        <v>8.6706523994569995</v>
       </c>
       <c r="Z3" s="0">
-        <v>13.171834673356694</v>
+        <v>8.6643809930253735</v>
       </c>
       <c r="AA3" s="0">
-        <v>13.174041678382991</v>
+        <v>8.6587034051932932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>8.3305136102757054</v>
+        <v>8.253314953115396</v>
       </c>
       <c r="B4" s="0">
-        <v>7.7083703132432735</v>
+        <v>7.6341941830201048</v>
       </c>
       <c r="C4" s="0">
-        <v>7.0909974537878178</v>
+        <v>7.0628841664915774</v>
       </c>
       <c r="D4" s="0">
-        <v>6.7212337145421674</v>
+        <v>6.7044750360816137</v>
       </c>
       <c r="E4" s="0">
-        <v>6.5387023071914117</v>
+        <v>6.5435076665920242</v>
       </c>
       <c r="F4" s="0">
-        <v>6.3515932321032036</v>
+        <v>6.3753182675138822</v>
       </c>
       <c r="G4" s="0">
-        <v>6.1734853271970378</v>
+        <v>6.2062712739836172</v>
       </c>
       <c r="H4" s="0">
-        <v>6.5856723590476385</v>
+        <v>6.6200819692684512</v>
       </c>
       <c r="I4" s="0">
-        <v>7.4620509457874817</v>
+        <v>7.5006355547144432</v>
       </c>
       <c r="J4" s="0">
-        <v>8.2691333456932838</v>
+        <v>8.0986237437395392</v>
       </c>
       <c r="K4" s="0">
-        <v>8.798319557315617</v>
+        <v>7.7658394074891985</v>
       </c>
       <c r="L4" s="0">
-        <v>9.2159868166030829</v>
+        <v>7.6466457534421064</v>
       </c>
       <c r="M4" s="0">
-        <v>9.5021346434782039</v>
+        <v>7.6068659964252294</v>
       </c>
       <c r="N4" s="0">
-        <v>9.5996220243991708</v>
+        <v>7.5669332015060649</v>
       </c>
       <c r="O4" s="0">
-        <v>9.5647076411532996</v>
+        <v>7.4939094486928166</v>
       </c>
       <c r="P4" s="0">
-        <v>9.4386996591969705</v>
+        <v>7.3952318189517641</v>
       </c>
       <c r="Q4" s="0">
-        <v>9.2790467110041206</v>
+        <v>7.2795879527193339</v>
       </c>
       <c r="R4" s="0">
-        <v>9.1553346938259423</v>
+        <v>7.1538530740609234</v>
       </c>
       <c r="S4" s="0">
-        <v>9.0530133425511607</v>
+        <v>7.023990449633633</v>
       </c>
       <c r="T4" s="0">
-        <v>8.9647154141037273</v>
+        <v>6.8947154116950324</v>
       </c>
       <c r="U4" s="0">
-        <v>8.8870003686919876</v>
+        <v>6.7693460478760406</v>
       </c>
       <c r="V4" s="0">
-        <v>8.8175385405826283</v>
+        <v>6.6554793893076178</v>
       </c>
       <c r="W4" s="0">
-        <v>8.754590514828017</v>
+        <v>6.5664395621650513</v>
       </c>
       <c r="X4" s="0">
-        <v>8.6965030271010342</v>
+        <v>6.4939094650641121</v>
       </c>
       <c r="Y4" s="0">
-        <v>8.6419417885602154</v>
+        <v>6.4327732362364252</v>
       </c>
       <c r="Z4" s="0">
-        <v>8.5908040484602033</v>
+        <v>6.3801817313781486</v>
       </c>
       <c r="AA4" s="0">
-        <v>8.5425391329990426</v>
+        <v>6.3340961261253952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>8.8384805554436952</v>
+        <v>8.8551195381442778</v>
       </c>
       <c r="B5" s="0">
-        <v>8.206951382243826</v>
+        <v>8.1742627771829568</v>
       </c>
       <c r="C5" s="0">
-        <v>7.5908689687462232</v>
+        <v>7.583352837717265</v>
       </c>
       <c r="D5" s="0">
-        <v>7.2071685202843367</v>
+        <v>7.1677429123056804</v>
       </c>
       <c r="E5" s="0">
-        <v>7.0460543763271088</v>
+        <v>7.000523461717961</v>
       </c>
       <c r="F5" s="0">
-        <v>6.8516135473677613</v>
+        <v>6.8195654320421211</v>
       </c>
       <c r="G5" s="0">
-        <v>6.6732210230065565</v>
+        <v>6.648519779644662</v>
       </c>
       <c r="H5" s="0">
-        <v>7.1627953371245194</v>
+        <v>7.0703260321682384</v>
       </c>
       <c r="I5" s="0">
-        <v>8.1203953733056391</v>
+        <v>7.9685512228791149</v>
       </c>
       <c r="J5" s="0">
-        <v>9.0053536425555549</v>
+        <v>8.6602776527190635</v>
       </c>
       <c r="K5" s="0">
-        <v>9.6162067722312816</v>
+        <v>8.3979909044843239</v>
       </c>
       <c r="L5" s="0">
-        <v>10.080893212265794</v>
+        <v>8.2900089031251376</v>
       </c>
       <c r="M5" s="0">
-        <v>10.450721016555422</v>
+        <v>8.2223991530631029</v>
       </c>
       <c r="N5" s="0">
-        <v>10.598787275067371</v>
+        <v>8.1526708858962245</v>
       </c>
       <c r="O5" s="0">
-        <v>10.567808878089751</v>
+        <v>8.0523049967382932</v>
       </c>
       <c r="P5" s="0">
-        <v>10.433172442116655</v>
+        <v>7.926000329985218</v>
       </c>
       <c r="Q5" s="0">
-        <v>10.258810787383789</v>
+        <v>7.795475608184006</v>
       </c>
       <c r="R5" s="0">
-        <v>10.113263379032961</v>
+        <v>7.6611964179204044</v>
       </c>
       <c r="S5" s="0">
-        <v>9.9922657127950938</v>
+        <v>7.5223472732417225</v>
       </c>
       <c r="T5" s="0">
-        <v>9.8870207635079783</v>
+        <v>7.384231547709204</v>
       </c>
       <c r="U5" s="0">
-        <v>9.7895797407456921</v>
+        <v>7.2506228565295059</v>
       </c>
       <c r="V5" s="0">
-        <v>9.7046370766565335</v>
+        <v>7.1294539300503237</v>
       </c>
       <c r="W5" s="0">
-        <v>9.626904488425053</v>
+        <v>7.0345568087723809</v>
       </c>
       <c r="X5" s="0">
-        <v>9.5550837114260165</v>
+        <v>6.9579743925673086</v>
       </c>
       <c r="Y5" s="0">
-        <v>9.497542524397538</v>
+        <v>6.8942880211803486</v>
       </c>
       <c r="Z5" s="0">
-        <v>9.4439815622069592</v>
+        <v>6.8401673302248725</v>
       </c>
       <c r="AA5" s="0">
-        <v>9.3937310926360897</v>
+        <v>6.7931613495427561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>9.4262944712936108</v>
+        <v>9.5055595496441736</v>
       </c>
       <c r="B6" s="0">
-        <v>8.8443663246109665</v>
+        <v>8.9081310755130065</v>
       </c>
       <c r="C6" s="0">
-        <v>8.3238779159872305</v>
+        <v>8.3473299741028217</v>
       </c>
       <c r="D6" s="0">
-        <v>7.9752171471327138</v>
+        <v>7.9853054229151113</v>
       </c>
       <c r="E6" s="0">
-        <v>7.8047211656075817</v>
+        <v>7.8113472838402016</v>
       </c>
       <c r="F6" s="0">
-        <v>7.6182932795045275</v>
+        <v>7.6246707452298041</v>
       </c>
       <c r="G6" s="0">
-        <v>7.4327492571322047</v>
+        <v>7.4317735579081923</v>
       </c>
       <c r="H6" s="0">
-        <v>7.9168510794760856</v>
+        <v>7.8225713089141618</v>
       </c>
       <c r="I6" s="0">
-        <v>8.9577540234173334</v>
+        <v>8.6914134329271775</v>
       </c>
       <c r="J6" s="0">
-        <v>9.9510907323573541</v>
+        <v>9.2968884255954318</v>
       </c>
       <c r="K6" s="0">
-        <v>10.631092075721583</v>
+        <v>8.9709952412460901</v>
       </c>
       <c r="L6" s="0">
-        <v>11.186281323558472</v>
+        <v>8.8609256316688079</v>
       </c>
       <c r="M6" s="0">
-        <v>11.59354896044522</v>
+        <v>8.8334457787632061</v>
       </c>
       <c r="N6" s="0">
-        <v>11.766460084757533</v>
+        <v>8.802832930712766</v>
       </c>
       <c r="O6" s="0">
-        <v>11.74127531784503</v>
+        <v>8.7319320663719626</v>
       </c>
       <c r="P6" s="0">
-        <v>11.572821216602989</v>
+        <v>8.6295947255484222</v>
       </c>
       <c r="Q6" s="0">
-        <v>11.34678085309584</v>
+        <v>8.5062285096057924</v>
       </c>
       <c r="R6" s="0">
-        <v>11.181635120594088</v>
+        <v>8.3699007751552603</v>
       </c>
       <c r="S6" s="0">
-        <v>11.045877231806479</v>
+        <v>8.2274643519772699</v>
       </c>
       <c r="T6" s="0">
-        <v>10.927958702772971</v>
+        <v>8.0843080557688296</v>
       </c>
       <c r="U6" s="0">
-        <v>10.831599516015773</v>
+        <v>7.944256467782405</v>
       </c>
       <c r="V6" s="0">
-        <v>10.748115614167546</v>
+        <v>7.8158210481429578</v>
       </c>
       <c r="W6" s="0">
-        <v>10.656635214215484</v>
+        <v>7.7138340534990659</v>
       </c>
       <c r="X6" s="0">
-        <v>10.577079136097471</v>
+        <v>7.6292715407189702</v>
       </c>
       <c r="Y6" s="0">
-        <v>10.509652717310999</v>
+        <v>7.5566888508339636</v>
       </c>
       <c r="Z6" s="0">
-        <v>10.446814924842432</v>
+        <v>7.4932343405263175</v>
       </c>
       <c r="AA6" s="0">
-        <v>10.388079542752864</v>
+        <v>7.4369151003743932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>8.3305136102757054</v>
+        <v>8.253314953115396</v>
       </c>
       <c r="B7" s="0">
-        <v>7.7083703132432735</v>
+        <v>7.6341941830201048</v>
       </c>
       <c r="C7" s="0">
-        <v>7.0909974537878178</v>
+        <v>7.0628841664915774</v>
       </c>
       <c r="D7" s="0">
-        <v>6.7212337145421674</v>
+        <v>6.7044750360816137</v>
       </c>
       <c r="E7" s="0">
-        <v>6.5387023071914117</v>
+        <v>6.5435076665920242</v>
       </c>
       <c r="F7" s="0">
-        <v>6.3515932321032036</v>
+        <v>6.3753182675138822</v>
       </c>
       <c r="G7" s="0">
-        <v>6.1734853271970378</v>
+        <v>6.2062712739836172</v>
       </c>
       <c r="H7" s="0">
-        <v>6.5856723590476385</v>
+        <v>6.6200819692684512</v>
       </c>
       <c r="I7" s="0">
-        <v>7.4620509457874817</v>
+        <v>7.5006355547144432</v>
       </c>
       <c r="J7" s="0">
-        <v>8.2691333456932838</v>
+        <v>8.0986237437395392</v>
       </c>
       <c r="K7" s="0">
-        <v>8.798319557315617</v>
+        <v>7.7658394074891985</v>
       </c>
       <c r="L7" s="0">
-        <v>9.2159868165857368</v>
+        <v>7.6466457534421064</v>
       </c>
       <c r="M7" s="0">
-        <v>9.5016527482612823</v>
+        <v>7.6068659962368246</v>
       </c>
       <c r="N7" s="0">
-        <v>9.5975378224927397</v>
+        <v>7.5667511789472988</v>
       </c>
       <c r="O7" s="0">
-        <v>9.5610118051162338</v>
+        <v>7.4931482444491033</v>
       </c>
       <c r="P7" s="0">
-        <v>9.4336987728112334</v>
+        <v>7.3939414688813976</v>
       </c>
       <c r="Q7" s="0">
-        <v>9.2736177811898131</v>
+        <v>7.2779087849285986</v>
       </c>
       <c r="R7" s="0">
-        <v>9.1511682963268868</v>
+        <v>7.1519177366297564</v>
       </c>
       <c r="S7" s="0">
-        <v>9.0503233722168375</v>
+        <v>7.0219166432121449</v>
       </c>
       <c r="T7" s="0">
-        <v>8.9633269481580982</v>
+        <v>6.8926067230654189</v>
       </c>
       <c r="U7" s="0">
-        <v>8.8867434512597008</v>
+        <v>6.7672932723343155</v>
       </c>
       <c r="V7" s="0">
-        <v>8.8182660219165054</v>
+        <v>6.6537444397962924</v>
       </c>
       <c r="W7" s="0">
-        <v>8.7561823846568601</v>
+        <v>6.5654986451871</v>
       </c>
       <c r="X7" s="0">
-        <v>8.6992029234200245</v>
+        <v>6.4937694051488082</v>
       </c>
       <c r="Y7" s="0">
-        <v>8.6453980000845121</v>
+        <v>6.4333356124675829</v>
       </c>
       <c r="Z7" s="0">
-        <v>8.5949512696807808</v>
+        <v>6.381356247095769</v>
       </c>
       <c r="AA7" s="0">
-        <v>8.5473262979309546</v>
+        <v>6.3358107475551657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>8.8384805554436952</v>
+        <v>8.8551195381442778</v>
       </c>
       <c r="B8" s="0">
-        <v>8.206951382243826</v>
+        <v>8.1742627771829568</v>
       </c>
       <c r="C8" s="0">
-        <v>7.5908689687462232</v>
+        <v>7.583352837717265</v>
       </c>
       <c r="D8" s="0">
-        <v>7.2071685202843367</v>
+        <v>7.1677429123056804</v>
       </c>
       <c r="E8" s="0">
-        <v>7.0460543763271088</v>
+        <v>7.000523461717961</v>
       </c>
       <c r="F8" s="0">
-        <v>6.8516135473677613</v>
+        <v>6.8195654320421211</v>
       </c>
       <c r="G8" s="0">
-        <v>6.6732210230065565</v>
+        <v>6.648519779644662</v>
       </c>
       <c r="H8" s="0">
-        <v>7.1627953371245194</v>
+        <v>7.0703260321682384</v>
       </c>
       <c r="I8" s="0">
-        <v>8.1203953733056391</v>
+        <v>7.9685512228791149</v>
       </c>
       <c r="J8" s="0">
-        <v>9.0053536425555549</v>
+        <v>8.6602776527190635</v>
       </c>
       <c r="K8" s="0">
-        <v>9.6162067722312816</v>
+        <v>8.3979909044843239</v>
       </c>
       <c r="L8" s="0">
-        <v>10.080893212265794</v>
+        <v>8.2900089031251376</v>
       </c>
       <c r="M8" s="0">
-        <v>10.450171903171134</v>
+        <v>8.2223991530268599</v>
       </c>
       <c r="N8" s="0">
-        <v>10.596418261301704</v>
+        <v>8.152432653449539</v>
       </c>
       <c r="O8" s="0">
-        <v>10.563455734185549</v>
+        <v>8.051294679739847</v>
       </c>
       <c r="P8" s="0">
-        <v>10.4269931664046</v>
+        <v>7.9242592229433972</v>
       </c>
       <c r="Q8" s="0">
-        <v>10.253343655506374</v>
+        <v>7.7934120843476924</v>
       </c>
       <c r="R8" s="0">
-        <v>10.10898058943202</v>
+        <v>7.6588175877605824</v>
       </c>
       <c r="S8" s="0">
-        <v>9.9888204502180766</v>
+        <v>7.5198033317089026</v>
       </c>
       <c r="T8" s="0">
-        <v>9.8850684477859687</v>
+        <v>7.3816546742658815</v>
       </c>
       <c r="U8" s="0">
-        <v>9.7890489027724819</v>
+        <v>7.2481276475073972</v>
       </c>
       <c r="V8" s="0">
-        <v>9.7052459517876848</v>
+        <v>7.1273594864740986</v>
       </c>
       <c r="W8" s="0">
-        <v>9.628525094982475</v>
+        <v>7.0334422719175818</v>
       </c>
       <c r="X8" s="0">
-        <v>9.5576104428776443</v>
+        <v>6.9578535112738891</v>
       </c>
       <c r="Y8" s="0">
-        <v>9.5006528905879524</v>
+        <v>6.8950406830458864</v>
       </c>
       <c r="Z8" s="0">
-        <v>9.4477656873238001</v>
+        <v>6.8416785381636789</v>
       </c>
       <c r="AA8" s="0">
-        <v>9.3981399558145728</v>
+        <v>6.795336839697808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>9.4262944712936108</v>
+        <v>9.5055595496441736</v>
       </c>
       <c r="B9" s="0">
-        <v>8.8443663246109665</v>
+        <v>8.9081310755130065</v>
       </c>
       <c r="C9" s="0">
-        <v>8.3238779159872305</v>
+        <v>8.3473299741028217</v>
       </c>
       <c r="D9" s="0">
-        <v>7.9752171471327138</v>
+        <v>7.9853054229151113</v>
       </c>
       <c r="E9" s="0">
-        <v>7.8047211656075817</v>
+        <v>7.8113472838402016</v>
       </c>
       <c r="F9" s="0">
-        <v>7.6182932795045275</v>
+        <v>7.6246707452298041</v>
       </c>
       <c r="G9" s="0">
-        <v>7.4327492571322047</v>
+        <v>7.4317735579081923</v>
       </c>
       <c r="H9" s="0">
-        <v>7.9168510794760856</v>
+        <v>7.8225713089141618</v>
       </c>
       <c r="I9" s="0">
-        <v>8.9577540234173334</v>
+        <v>8.6914134329271775</v>
       </c>
       <c r="J9" s="0">
-        <v>9.9510907323573541</v>
+        <v>9.2968884255954318</v>
       </c>
       <c r="K9" s="0">
-        <v>10.631092075721583</v>
+        <v>8.9709952412460901</v>
       </c>
       <c r="L9" s="0">
-        <v>11.186281323432024</v>
+        <v>8.8609256316688079</v>
       </c>
       <c r="M9" s="0">
-        <v>11.593054341153641</v>
+        <v>8.8334457787188168</v>
       </c>
       <c r="N9" s="0">
-        <v>11.764119894209163</v>
+        <v>8.80266175058701</v>
       </c>
       <c r="O9" s="0">
-        <v>11.737072282203904</v>
+        <v>8.731214595272446</v>
       </c>
       <c r="P9" s="0">
-        <v>11.567067006045836</v>
+        <v>8.6283756507472926</v>
       </c>
       <c r="Q9" s="0">
-        <v>11.340493282381694</v>
+        <v>8.5046364837397874</v>
       </c>
       <c r="R9" s="0">
-        <v>11.176515777829877</v>
+        <v>8.3680565269328753</v>
       </c>
       <c r="S9" s="0">
-        <v>11.042376082569426</v>
+        <v>8.2254751262162795</v>
       </c>
       <c r="T9" s="0">
-        <v>10.925945506848308</v>
+        <v>8.0822693790208788</v>
       </c>
       <c r="U9" s="0">
-        <v>10.831031478537991</v>
+        <v>7.9422538136267038</v>
       </c>
       <c r="V9" s="0">
-        <v>10.748655018895512</v>
+        <v>7.8141057488301682</v>
       </c>
       <c r="W9" s="0">
-        <v>10.658288910614978</v>
+        <v>7.7128644322708775</v>
       </c>
       <c r="X9" s="0">
-        <v>10.579242655438716</v>
+        <v>7.6290584921178972</v>
       </c>
       <c r="Y9" s="0">
-        <v>10.512584446148182</v>
+        <v>7.5571445710231871</v>
       </c>
       <c r="Z9" s="0">
-        <v>10.450429656792362</v>
+        <v>7.494280151808284</v>
       </c>
       <c r="AA9" s="0">
-        <v>10.392326803112264</v>
+        <v>7.4384894726139788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>8.3305136102757054</v>
+        <v>8.253314953115396</v>
       </c>
       <c r="B10" s="0">
-        <v>7.7083703132432735</v>
+        <v>7.6341941830201048</v>
       </c>
       <c r="C10" s="0">
-        <v>7.0909974537878178</v>
+        <v>7.0628841664915774</v>
       </c>
       <c r="D10" s="0">
-        <v>6.7212337145421674</v>
+        <v>6.7044750360816137</v>
       </c>
       <c r="E10" s="0">
-        <v>6.5387023071914117</v>
+        <v>6.5435076665920242</v>
       </c>
       <c r="F10" s="0">
-        <v>6.3515932321032036</v>
+        <v>6.3753182675138822</v>
       </c>
       <c r="G10" s="0">
-        <v>6.1734853271970378</v>
+        <v>6.2062712739836172</v>
       </c>
       <c r="H10" s="0">
-        <v>6.5856723590476385</v>
+        <v>6.6200819692684512</v>
       </c>
       <c r="I10" s="0">
-        <v>7.4620509457874817</v>
+        <v>7.5006355547144432</v>
       </c>
       <c r="J10" s="0">
-        <v>8.2691333456932838</v>
+        <v>8.0986237437395392</v>
       </c>
       <c r="K10" s="0">
-        <v>8.798319557315617</v>
+        <v>7.7658394074891985</v>
       </c>
       <c r="L10" s="0">
-        <v>9.2159868165727286</v>
+        <v>7.6466457534421064</v>
       </c>
       <c r="M10" s="0">
-        <v>9.4971627888891881</v>
+        <v>7.6068659962184775</v>
       </c>
       <c r="N10" s="0">
-        <v>9.5452485354245944</v>
+        <v>7.565096787931747</v>
       </c>
       <c r="O10" s="0">
-        <v>9.3911886201791894</v>
+        <v>7.4732521781655796</v>
       </c>
       <c r="P10" s="0">
-        <v>9.0949490629029128</v>
+        <v>7.3272952317268452</v>
       </c>
       <c r="Q10" s="0">
-        <v>8.7305512932217315</v>
+        <v>7.1401512315784119</v>
       </c>
       <c r="R10" s="0">
-        <v>8.4234042186849329</v>
+        <v>6.9279851918603681</v>
       </c>
       <c r="S10" s="0">
-        <v>8.1940576349114753</v>
+        <v>6.7055942854480088</v>
       </c>
       <c r="T10" s="0">
-        <v>8.0247018900562139</v>
+        <v>6.4844190166886371</v>
       </c>
       <c r="U10" s="0">
-        <v>7.8960979305465564</v>
+        <v>6.2722246724833317</v>
       </c>
       <c r="V10" s="0">
-        <v>7.789514237043635</v>
+        <v>6.0800702381407508</v>
       </c>
       <c r="W10" s="0">
-        <v>7.7072119221213971</v>
+        <v>5.9294878429858642</v>
       </c>
       <c r="X10" s="0">
-        <v>7.6408126017680651</v>
+        <v>5.8157318824739823</v>
       </c>
       <c r="Y10" s="0">
-        <v>7.5848169356245325</v>
+        <v>5.7294528998879129</v>
       </c>
       <c r="Z10" s="0">
-        <v>7.5350783149343794</v>
+        <v>5.6626180360562302</v>
       </c>
       <c r="AA10" s="0">
-        <v>7.4855023721060023</v>
+        <v>5.6092144139850761</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>8.8384805554436952</v>
+        <v>8.8551195381442778</v>
       </c>
       <c r="B11" s="0">
-        <v>8.206951382243826</v>
+        <v>8.1742627771829568</v>
       </c>
       <c r="C11" s="0">
-        <v>7.5908689687462232</v>
+        <v>7.583352837717265</v>
       </c>
       <c r="D11" s="0">
-        <v>7.2071685202843367</v>
+        <v>7.1677429123056804</v>
       </c>
       <c r="E11" s="0">
-        <v>7.0460543763271088</v>
+        <v>7.000523461717961</v>
       </c>
       <c r="F11" s="0">
-        <v>6.8516135473677613</v>
+        <v>6.8195654320421211</v>
       </c>
       <c r="G11" s="0">
-        <v>6.6732210230065565</v>
+        <v>6.648519779644662</v>
       </c>
       <c r="H11" s="0">
-        <v>7.1627953371245194</v>
+        <v>7.0703260321682384</v>
       </c>
       <c r="I11" s="0">
-        <v>8.1203953733056391</v>
+        <v>7.9685512228791149</v>
       </c>
       <c r="J11" s="0">
-        <v>9.0053536425555549</v>
+        <v>8.6602776527190635</v>
       </c>
       <c r="K11" s="0">
-        <v>9.6162067722312816</v>
+        <v>8.3979909044843239</v>
       </c>
       <c r="L11" s="0">
-        <v>10.080893212256695</v>
+        <v>8.2900089031251376</v>
       </c>
       <c r="M11" s="0">
-        <v>10.441846289778857</v>
+        <v>8.2223991530177987</v>
       </c>
       <c r="N11" s="0">
-        <v>10.525775730558161</v>
+        <v>8.1495285521147682</v>
       </c>
       <c r="O11" s="0">
-        <v>10.335306359686564</v>
+        <v>8.0212560945363798</v>
       </c>
       <c r="P11" s="0">
-        <v>9.9824289647926054</v>
+        <v>7.8492445284185521</v>
       </c>
       <c r="Q11" s="0">
-        <v>9.5551675002503114</v>
+        <v>7.6587300907533011</v>
       </c>
       <c r="R11" s="0">
-        <v>9.2093661466286338</v>
+        <v>7.4463523612911704</v>
       </c>
       <c r="S11" s="0">
-        <v>8.9382271763925232</v>
+        <v>7.2263204736717173</v>
       </c>
       <c r="T11" s="0">
-        <v>8.7379728104316197</v>
+        <v>6.941629954323143</v>
       </c>
       <c r="U11" s="0">
-        <v>8.5986579632201554</v>
+        <v>6.7118193693846466</v>
       </c>
       <c r="V11" s="0">
-        <v>8.4972720978427869</v>
+        <v>6.5185127870466992</v>
       </c>
       <c r="W11" s="0">
-        <v>8.4073854295064034</v>
+        <v>6.3670115064127062</v>
       </c>
       <c r="X11" s="0">
-        <v>8.3301309818107221</v>
+        <v>6.2528801664040197</v>
       </c>
       <c r="Y11" s="0">
-        <v>8.2717820127580381</v>
+        <v>6.166259630742589</v>
       </c>
       <c r="Z11" s="0">
-        <v>8.2160171655066474</v>
+        <v>6.0988189034730249</v>
       </c>
       <c r="AA11" s="0">
-        <v>8.1709381736680289</v>
+        <v>6.0444814195555541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>9.4262944712936108</v>
+        <v>9.5055595496441736</v>
       </c>
       <c r="B12" s="0">
-        <v>8.8443663246109665</v>
+        <v>8.9081310755130065</v>
       </c>
       <c r="C12" s="0">
-        <v>8.3238779159872305</v>
+        <v>8.3473299741028217</v>
       </c>
       <c r="D12" s="0">
-        <v>7.9752171471327138</v>
+        <v>7.9853054229151113</v>
       </c>
       <c r="E12" s="0">
-        <v>7.8047211656075817</v>
+        <v>7.8113472838402016</v>
       </c>
       <c r="F12" s="0">
-        <v>7.6182932795045275</v>
+        <v>7.6246707452298041</v>
       </c>
       <c r="G12" s="0">
-        <v>7.4327492571322047</v>
+        <v>7.4317735579081923</v>
       </c>
       <c r="H12" s="0">
-        <v>7.9168510794760856</v>
+        <v>7.8225713089141618</v>
       </c>
       <c r="I12" s="0">
-        <v>8.9577540234173334</v>
+        <v>8.6914134329271775</v>
       </c>
       <c r="J12" s="0">
-        <v>9.9510907323573541</v>
+        <v>9.2968884255954318</v>
       </c>
       <c r="K12" s="0">
-        <v>10.631092075721583</v>
+        <v>8.9709952412460901</v>
       </c>
       <c r="L12" s="0">
-        <v>11.186281323402611</v>
+        <v>8.8609256316688079</v>
       </c>
       <c r="M12" s="0">
-        <v>11.587107343643018</v>
+        <v>8.8334457787102583</v>
       </c>
       <c r="N12" s="0">
-        <v>11.685922514149336</v>
+        <v>8.8005961908692232</v>
       </c>
       <c r="O12" s="0">
-        <v>11.491073615937086</v>
+        <v>8.7052988355203968</v>
       </c>
       <c r="P12" s="0">
-        <v>11.086471579050979</v>
+        <v>8.538231760226763</v>
       </c>
       <c r="Q12" s="0">
-        <v>10.601330292647932</v>
+        <v>8.3124493184736874</v>
       </c>
       <c r="R12" s="0">
-        <v>10.206695335928913</v>
+        <v>8.0476732584801258</v>
       </c>
       <c r="S12" s="0">
-        <v>9.9129839705088898</v>
+        <v>7.7636411598267241</v>
       </c>
       <c r="T12" s="0">
-        <v>9.6971954497395885</v>
+        <v>7.476805052785128</v>
       </c>
       <c r="U12" s="0">
-        <v>9.5368781609772864</v>
+        <v>7.1998711467466263</v>
       </c>
       <c r="V12" s="0">
-        <v>9.4120031123101917</v>
+        <v>6.946513066475803</v>
       </c>
       <c r="W12" s="0">
-        <v>9.3069041916822819</v>
+        <v>6.7426888581016939</v>
       </c>
       <c r="X12" s="0">
-        <v>9.2190667136320972</v>
+        <v>6.5854230726148018</v>
       </c>
       <c r="Y12" s="0">
-        <v>9.1449747735836908</v>
+        <v>6.4648267881172377</v>
       </c>
       <c r="Z12" s="0">
-        <v>9.080694430311107</v>
+        <v>6.37132691833283</v>
       </c>
       <c r="AA12" s="0">
-        <v>9.0235781438768559</v>
+        <v>6.3041022266499089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>8.3305136102757054</v>
+        <v>8.253314953115396</v>
       </c>
       <c r="B13" s="0">
-        <v>7.7083703132432735</v>
+        <v>7.6341941830201048</v>
       </c>
       <c r="C13" s="0">
-        <v>7.0909974537878178</v>
+        <v>7.0628841664915774</v>
       </c>
       <c r="D13" s="0">
-        <v>6.7212337145421674</v>
+        <v>6.7044750360816137</v>
       </c>
       <c r="E13" s="0">
-        <v>6.5387023071914117</v>
+        <v>6.5435076665920242</v>
       </c>
       <c r="F13" s="0">
-        <v>6.3515932321032036</v>
+        <v>6.3753182675138822</v>
       </c>
       <c r="G13" s="0">
-        <v>6.1734853271970378</v>
+        <v>6.2062712739836172</v>
       </c>
       <c r="H13" s="0">
-        <v>6.5856723590476385</v>
+        <v>6.6200819692684512</v>
       </c>
       <c r="I13" s="0">
-        <v>7.4620509457874817</v>
+        <v>7.5006355547144432</v>
       </c>
       <c r="J13" s="0">
-        <v>8.2691333456932838</v>
+        <v>8.0986237437395392</v>
       </c>
       <c r="K13" s="0">
-        <v>8.798319557315617</v>
+        <v>7.7658394074891985</v>
       </c>
       <c r="L13" s="0">
-        <v>9.2159868165810295</v>
+        <v>7.6466457534421064</v>
       </c>
       <c r="M13" s="0">
-        <v>9.4970683908460174</v>
+        <v>7.6068659962182545</v>
       </c>
       <c r="N13" s="0">
-        <v>9.5432644163109384</v>
+        <v>7.5650875207605841</v>
       </c>
       <c r="O13" s="0">
-        <v>9.382614090221475</v>
+        <v>7.4725892449640039</v>
       </c>
       <c r="P13" s="0">
-        <v>9.0748041086771831</v>
+        <v>7.3238520581043964</v>
       </c>
       <c r="Q13" s="0">
-        <v>8.6966216347104908</v>
+        <v>7.1314050563419151</v>
       </c>
       <c r="R13" s="0">
-        <v>8.3755205305502507</v>
+        <v>6.9120069816083802</v>
       </c>
       <c r="S13" s="0">
-        <v>8.1355378696614871</v>
+        <v>6.6813552908512168</v>
       </c>
       <c r="T13" s="0">
-        <v>7.958107498356541</v>
+        <v>6.4517369635443593</v>
       </c>
       <c r="U13" s="0">
-        <v>7.8046850385915327</v>
+        <v>6.2315668539635931</v>
       </c>
       <c r="V13" s="0">
-        <v>7.7022942996604673</v>
+        <v>6.0323391722881521</v>
       </c>
       <c r="W13" s="0">
-        <v>7.6301441497361253</v>
+        <v>5.8761013446527386</v>
       </c>
       <c r="X13" s="0">
-        <v>7.5708237713621109</v>
+        <v>5.7586527415988149</v>
       </c>
       <c r="Y13" s="0">
-        <v>7.5201455885662361</v>
+        <v>5.6705143945430665</v>
       </c>
       <c r="Z13" s="0">
-        <v>7.4698581418925922</v>
+        <v>5.6031535590764685</v>
       </c>
       <c r="AA13" s="0">
-        <v>7.4248337269965763</v>
+        <v>5.5500572416658018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>8.8384805554436952</v>
+        <v>8.8551195381442778</v>
       </c>
       <c r="B14" s="0">
-        <v>8.206951382243826</v>
+        <v>8.1742627771829568</v>
       </c>
       <c r="C14" s="0">
-        <v>7.5908689687462232</v>
+        <v>7.583352837717265</v>
       </c>
       <c r="D14" s="0">
-        <v>7.2071685202843367</v>
+        <v>7.1677429123056804</v>
       </c>
       <c r="E14" s="0">
-        <v>7.0460543763271088</v>
+        <v>7.000523461717961</v>
       </c>
       <c r="F14" s="0">
-        <v>6.8516135473677613</v>
+        <v>6.8195654320421211</v>
       </c>
       <c r="G14" s="0">
-        <v>6.6732210230065565</v>
+        <v>6.648519779644662</v>
       </c>
       <c r="H14" s="0">
-        <v>7.1627953371245194</v>
+        <v>7.0703260321682384</v>
       </c>
       <c r="I14" s="0">
-        <v>8.1203953733056391</v>
+        <v>7.9685512228791149</v>
       </c>
       <c r="J14" s="0">
-        <v>9.0053536425555549</v>
+        <v>8.6602776527190635</v>
       </c>
       <c r="K14" s="0">
-        <v>9.6162067722312816</v>
+        <v>8.3979909044843239</v>
       </c>
       <c r="L14" s="0">
-        <v>10.080893212265794</v>
+        <v>8.2900089031251376</v>
       </c>
       <c r="M14" s="0">
-        <v>10.44171287348696</v>
+        <v>8.2223991530268599</v>
       </c>
       <c r="N14" s="0">
-        <v>10.523476618784436</v>
+        <v>8.1494460923554435</v>
       </c>
       <c r="O14" s="0">
-        <v>10.326242911699921</v>
+        <v>8.020052223440743</v>
       </c>
       <c r="P14" s="0">
-        <v>9.9627507409220097</v>
+        <v>7.8449903448214853</v>
       </c>
       <c r="Q14" s="0">
-        <v>9.5168119424700102</v>
+        <v>7.6491369334580055</v>
       </c>
       <c r="R14" s="0">
-        <v>9.1606902311248319</v>
+        <v>7.4300343157376592</v>
       </c>
       <c r="S14" s="0">
-        <v>8.8828296136918805</v>
+        <v>7.2027283045076071</v>
       </c>
       <c r="T14" s="0">
-        <v>8.6706122267181236</v>
+        <v>6.9024774405642671</v>
       </c>
       <c r="U14" s="0">
-        <v>8.5246017775918155</v>
+        <v>6.6670339801307161</v>
       </c>
       <c r="V14" s="0">
-        <v>8.4176246887460486</v>
+        <v>6.4663884028476888</v>
       </c>
       <c r="W14" s="0">
-        <v>8.327570829830286</v>
+        <v>6.3091497701362993</v>
       </c>
       <c r="X14" s="0">
-        <v>8.26425349954539</v>
+        <v>6.1914111972546238</v>
       </c>
       <c r="Y14" s="0">
-        <v>8.2097601687378798</v>
+        <v>6.1030692333076662</v>
       </c>
       <c r="Z14" s="0">
-        <v>8.1602803403264499</v>
+        <v>6.0352168884636148</v>
       </c>
       <c r="AA14" s="0">
-        <v>8.1114090806389321</v>
+        <v>5.9812492287820627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>9.4262944712936108</v>
+        <v>9.5055595496441736</v>
       </c>
       <c r="B15" s="0">
-        <v>8.8443663246109665</v>
+        <v>8.9081310755130065</v>
       </c>
       <c r="C15" s="0">
-        <v>8.3238779159872305</v>
+        <v>8.3473299741028217</v>
       </c>
       <c r="D15" s="0">
-        <v>7.9752171471327138</v>
+        <v>7.9853054229151113</v>
       </c>
       <c r="E15" s="0">
-        <v>7.8047211656075817</v>
+        <v>7.8113472838402016</v>
       </c>
       <c r="F15" s="0">
-        <v>7.6182932795045275</v>
+        <v>7.6246707452298041</v>
       </c>
       <c r="G15" s="0">
-        <v>7.4327492571322047</v>
+        <v>7.4317735579081923</v>
       </c>
       <c r="H15" s="0">
-        <v>7.9168510794760856</v>
+        <v>7.8225713089141618</v>
       </c>
       <c r="I15" s="0">
-        <v>8.9577540234173334</v>
+        <v>8.6914134329271775</v>
       </c>
       <c r="J15" s="0">
-        <v>9.9510907323573541</v>
+        <v>9.2968884255954318</v>
       </c>
       <c r="K15" s="0">
-        <v>10.631092075721583</v>
+        <v>8.9709952412460901</v>
       </c>
       <c r="L15" s="0">
-        <v>11.186281323412416</v>
+        <v>8.8609256316688079</v>
       </c>
       <c r="M15" s="0">
-        <v>11.587099206261243</v>
+        <v>8.8334457787102583</v>
       </c>
       <c r="N15" s="0">
-        <v>11.684140669709716</v>
+        <v>8.8006136489212832</v>
       </c>
       <c r="O15" s="0">
-        <v>11.482451987534429</v>
+        <v>8.7046124062747445</v>
       </c>
       <c r="P15" s="0">
-        <v>11.06446446593476</v>
+        <v>8.5338367804141626</v>
       </c>
       <c r="Q15" s="0">
-        <v>10.56165928003208</v>
+        <v>8.3003765855745826</v>
       </c>
       <c r="R15" s="0">
-        <v>10.149249133161465</v>
+        <v>8.0245640311234983</v>
       </c>
       <c r="S15" s="0">
-        <v>9.8413282802771995</v>
+        <v>7.7274058548905122</v>
       </c>
       <c r="T15" s="0">
-        <v>9.616111328262674</v>
+        <v>7.4267485658488521</v>
       </c>
       <c r="U15" s="0">
-        <v>9.4508155555665603</v>
+        <v>7.1364037422090956</v>
       </c>
       <c r="V15" s="0">
-        <v>9.3177843815676162</v>
+        <v>6.8709146124733538</v>
       </c>
       <c r="W15" s="0">
-        <v>9.2120805159178332</v>
+        <v>6.6570897397198881</v>
       </c>
       <c r="X15" s="0">
-        <v>9.1282077400482056</v>
+        <v>6.4928812396753557</v>
       </c>
       <c r="Y15" s="0">
-        <v>9.0594828573929789</v>
+        <v>6.3747780507435543</v>
       </c>
       <c r="Z15" s="0">
-        <v>9.001380212191421</v>
+        <v>6.2994347078934965</v>
       </c>
       <c r="AA15" s="0">
-        <v>8.9485161730043714</v>
+        <v>6.2404172067282051</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>8.3305136102757054</v>
+        <v>8.253314953115396</v>
       </c>
       <c r="B16" s="0">
-        <v>7.7083703132432735</v>
+        <v>7.6341941830201048</v>
       </c>
       <c r="C16" s="0">
-        <v>7.0909974537878178</v>
+        <v>7.0628841664915774</v>
       </c>
       <c r="D16" s="0">
-        <v>6.7212337145421674</v>
+        <v>6.7044750360816137</v>
       </c>
       <c r="E16" s="0">
-        <v>6.5387023071914117</v>
+        <v>6.5435076665920242</v>
       </c>
       <c r="F16" s="0">
-        <v>6.3515932321032036</v>
+        <v>6.3753182675138822</v>
       </c>
       <c r="G16" s="0">
-        <v>6.1734853271970378</v>
+        <v>6.2062712739836172</v>
       </c>
       <c r="H16" s="0">
-        <v>6.5856723590476385</v>
+        <v>6.6200819692684512</v>
       </c>
       <c r="I16" s="0">
-        <v>7.4620509457874817</v>
+        <v>7.5006355547144432</v>
       </c>
       <c r="J16" s="0">
-        <v>8.2691333456932838</v>
+        <v>8.0986237437395392</v>
       </c>
       <c r="K16" s="0">
-        <v>8.798319557315617</v>
+        <v>7.7658394074891985</v>
       </c>
       <c r="L16" s="0">
-        <v>9.2159868209073394</v>
+        <v>7.6466457534421064</v>
       </c>
       <c r="M16" s="0">
-        <v>9.4405307037887027</v>
+        <v>7.6068659857205505</v>
       </c>
       <c r="N16" s="0">
-        <v>9.2674754258759329</v>
+        <v>7.5496624982384866</v>
       </c>
       <c r="O16" s="0">
-        <v>8.8269842929285147</v>
+        <v>7.3960771240423329</v>
       </c>
       <c r="P16" s="0">
-        <v>8.2088078717006443</v>
+        <v>7.1654737964696347</v>
       </c>
       <c r="Q16" s="0">
-        <v>7.5774646954137177</v>
+        <v>6.8799972854402567</v>
       </c>
       <c r="R16" s="0">
-        <v>7.1287926867470048</v>
+        <v>6.5611196860261245</v>
       </c>
       <c r="S16" s="0">
-        <v>6.8152608674482185</v>
+        <v>6.2286614801639653</v>
       </c>
       <c r="T16" s="0">
-        <v>6.5859073320173458</v>
+        <v>5.8982547012847979</v>
       </c>
       <c r="U16" s="0">
-        <v>6.3992221091378809</v>
+        <v>5.5806856407616445</v>
       </c>
       <c r="V16" s="0">
-        <v>6.2580858665808377</v>
+        <v>5.3006007129668946</v>
       </c>
       <c r="W16" s="0">
-        <v>6.1431240161898071</v>
+        <v>5.0985436919348644</v>
       </c>
       <c r="X16" s="0">
-        <v>6.0563460910810711</v>
+        <v>4.9474387740624426</v>
       </c>
       <c r="Y16" s="0">
-        <v>5.9824198845823879</v>
+        <v>4.8321269309229038</v>
       </c>
       <c r="Z16" s="0">
-        <v>5.9161492977503816</v>
+        <v>4.7424519241103846</v>
       </c>
       <c r="AA16" s="0">
-        <v>5.856025383824587</v>
+        <v>4.670524304007178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>8.8384805554436952</v>
+        <v>8.8551195381442778</v>
       </c>
       <c r="B17" s="0">
-        <v>8.206951382243826</v>
+        <v>8.1742627771829568</v>
       </c>
       <c r="C17" s="0">
-        <v>7.5908689687462232</v>
+        <v>7.583352837717265</v>
       </c>
       <c r="D17" s="0">
-        <v>7.2071685202843367</v>
+        <v>7.1677429123056804</v>
       </c>
       <c r="E17" s="0">
-        <v>7.0460543763271088</v>
+        <v>7.000523461717961</v>
       </c>
       <c r="F17" s="0">
-        <v>6.8516135473677613</v>
+        <v>6.8195654320421211</v>
       </c>
       <c r="G17" s="0">
-        <v>6.6732210230065565</v>
+        <v>6.648519779644662</v>
       </c>
       <c r="H17" s="0">
-        <v>7.1627953371245194</v>
+        <v>7.0703260321682384</v>
       </c>
       <c r="I17" s="0">
-        <v>8.1203953733056391</v>
+        <v>7.9685512228791149</v>
       </c>
       <c r="J17" s="0">
-        <v>9.0053536425555549</v>
+        <v>8.6602776527190635</v>
       </c>
       <c r="K17" s="0">
-        <v>9.6162067722312816</v>
+        <v>8.3979909044843239</v>
       </c>
       <c r="L17" s="0">
-        <v>10.080893216223144</v>
+        <v>8.2900089031251376</v>
       </c>
       <c r="M17" s="0">
-        <v>10.377187799590278</v>
+        <v>8.2223991104489418</v>
       </c>
       <c r="N17" s="0">
-        <v>10.21499294641427</v>
+        <v>8.1327903439158966</v>
       </c>
       <c r="O17" s="0">
-        <v>9.7235942001800346</v>
+        <v>7.941300648075762</v>
       </c>
       <c r="P17" s="0">
-        <v>9.0217552609536469</v>
+        <v>7.6868861974395015</v>
       </c>
       <c r="Q17" s="0">
-        <v>8.2855503339456753</v>
+        <v>7.3967043614628683</v>
       </c>
       <c r="R17" s="0">
-        <v>7.758082439310229</v>
+        <v>7.0760309248193378</v>
       </c>
       <c r="S17" s="0">
-        <v>7.3820876067890007</v>
+        <v>6.6807498074288221</v>
       </c>
       <c r="T17" s="0">
-        <v>7.121701612462652</v>
+        <v>6.3479849054244815</v>
       </c>
       <c r="U17" s="0">
-        <v>6.9215907563463084</v>
+        <v>5.9965829812240612</v>
       </c>
       <c r="V17" s="0">
-        <v>6.7839946558207878</v>
+        <v>5.6914048611784791</v>
       </c>
       <c r="W17" s="0">
-        <v>6.6655994700465229</v>
+        <v>5.4745815468983326</v>
       </c>
       <c r="X17" s="0">
-        <v>6.5690535761897735</v>
+        <v>5.318501268596223</v>
       </c>
       <c r="Y17" s="0">
-        <v>6.4885614712945019</v>
+        <v>5.1998619453875898</v>
       </c>
       <c r="Z17" s="0">
-        <v>6.4192604222792307</v>
+        <v>5.0987129250689032</v>
       </c>
       <c r="AA17" s="0">
-        <v>6.3557799596962239</v>
+        <v>5.0193853887423163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>9.4262944712936108</v>
+        <v>9.5055595496441736</v>
       </c>
       <c r="B18" s="0">
-        <v>8.8443663246109665</v>
+        <v>8.9081310755130065</v>
       </c>
       <c r="C18" s="0">
-        <v>8.3238779159872305</v>
+        <v>8.3473299741028217</v>
       </c>
       <c r="D18" s="0">
-        <v>7.9752171471327138</v>
+        <v>7.9853054229151113</v>
       </c>
       <c r="E18" s="0">
-        <v>7.8047211656075817</v>
+        <v>7.8113472838402016</v>
       </c>
       <c r="F18" s="0">
-        <v>7.6182932795045275</v>
+        <v>7.6246707452298041</v>
       </c>
       <c r="G18" s="0">
-        <v>7.4327492571322047</v>
+        <v>7.4317735579081923</v>
       </c>
       <c r="H18" s="0">
-        <v>7.9168510794760856</v>
+        <v>7.8225713089141618</v>
       </c>
       <c r="I18" s="0">
-        <v>8.9577540234173334</v>
+        <v>8.6914134329271775</v>
       </c>
       <c r="J18" s="0">
-        <v>9.9510907323573541</v>
+        <v>9.2968884255954318</v>
       </c>
       <c r="K18" s="0">
-        <v>10.631092075721583</v>
+        <v>8.9709952412460901</v>
       </c>
       <c r="L18" s="0">
-        <v>11.186281332623146</v>
+        <v>8.8609256316688079</v>
       </c>
       <c r="M18" s="0">
-        <v>11.513476986892043</v>
+        <v>8.8334457231761068</v>
       </c>
       <c r="N18" s="0">
-        <v>11.346668106295756</v>
+        <v>8.7851942990064096</v>
       </c>
       <c r="O18" s="0">
-        <v>10.795378173588297</v>
+        <v>8.6271264012969109</v>
       </c>
       <c r="P18" s="0">
-        <v>9.9995836034124803</v>
+        <v>8.3721554480736735</v>
       </c>
       <c r="Q18" s="0">
-        <v>9.1714213006637593</v>
+        <v>8.0424075046219397</v>
       </c>
       <c r="R18" s="0">
-        <v>8.5692824829984247</v>
+        <v>7.6631665753580736</v>
       </c>
       <c r="S18" s="0">
-        <v>8.1259190397390366</v>
+        <v>7.2597995139080407</v>
       </c>
       <c r="T18" s="0">
-        <v>7.8160685622924762</v>
+        <v>6.8536585058434687</v>
       </c>
       <c r="U18" s="0">
-        <v>7.5893640169526666</v>
+        <v>6.4608902819990179</v>
       </c>
       <c r="V18" s="0">
-        <v>7.4192210087035457</v>
+        <v>6.1101932611883516</v>
       </c>
       <c r="W18" s="0">
-        <v>7.2870768728525377</v>
+        <v>5.8472739895126882</v>
       </c>
       <c r="X18" s="0">
-        <v>7.1798212393605123</v>
+        <v>5.6476295961285112</v>
       </c>
       <c r="Y18" s="0">
-        <v>7.0905978614125491</v>
+        <v>5.4946955288297561</v>
       </c>
       <c r="Z18" s="0">
-        <v>7.011224954165181</v>
+        <v>5.3762198352487092</v>
       </c>
       <c r="AA18" s="0">
-        <v>6.9396290428100578</v>
+        <v>5.2823849334837592</v>
       </c>
     </row>
   </sheetData>

--- a/England - submitted 19Jun25/incd_tbl.xlsx
+++ b/England - submitted 19Jun25/incd_tbl.xlsx
@@ -90,1496 +90,1496 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>8.253314953115396</v>
+        <v>11.306636318691716</v>
       </c>
       <c r="B1" s="0">
-        <v>7.6341941830201048</v>
+        <v>10.339907439007668</v>
       </c>
       <c r="C1" s="0">
-        <v>7.0628841664915774</v>
+        <v>9.4548100511365103</v>
       </c>
       <c r="D1" s="0">
-        <v>6.7044750360816137</v>
+        <v>8.8896368280412368</v>
       </c>
       <c r="E1" s="0">
-        <v>6.5435076665920242</v>
+        <v>8.6146439359234073</v>
       </c>
       <c r="F1" s="0">
-        <v>6.3753182675138822</v>
+        <v>8.3425106322329974</v>
       </c>
       <c r="G1" s="0">
-        <v>6.2062712739836172</v>
+        <v>8.0912840967225339</v>
       </c>
       <c r="H1" s="0">
-        <v>6.6200819692684512</v>
+        <v>8.4194997554262869</v>
       </c>
       <c r="I1" s="0">
-        <v>7.5006355547144432</v>
+        <v>9.1691170742707939</v>
       </c>
       <c r="J1" s="0">
-        <v>8.0986237437395392</v>
+        <v>9.6056950919768802</v>
       </c>
       <c r="K1" s="0">
-        <v>7.7658394074891985</v>
+        <v>9.1780075708728894</v>
       </c>
       <c r="L1" s="0">
-        <v>7.6466457534421064</v>
+        <v>9.0377464061489459</v>
       </c>
       <c r="M1" s="0">
-        <v>7.6068660830815169</v>
+        <v>8.9937648948636504</v>
       </c>
       <c r="N1" s="0">
-        <v>7.5763800960320271</v>
+        <v>8.9637573345837147</v>
       </c>
       <c r="O1" s="0">
-        <v>7.5494745774599856</v>
+        <v>8.9390577722434834</v>
       </c>
       <c r="P1" s="0">
-        <v>7.5265564348855163</v>
+        <v>8.9190869398442398</v>
       </c>
       <c r="Q1" s="0">
-        <v>7.5074701741685939</v>
+        <v>8.9034077003858343</v>
       </c>
       <c r="R1" s="0">
-        <v>7.4917024961797711</v>
+        <v>8.8914316698223921</v>
       </c>
       <c r="S1" s="0">
-        <v>7.4786973670161103</v>
+        <v>8.8825627019378555</v>
       </c>
       <c r="T1" s="0">
-        <v>7.4679506598627432</v>
+        <v>8.876255176478054</v>
       </c>
       <c r="U1" s="0">
-        <v>7.4590382586206525</v>
+        <v>8.8720376636080065</v>
       </c>
       <c r="V1" s="0">
-        <v>7.4516108123031213</v>
+        <v>8.8695118297496176</v>
       </c>
       <c r="W1" s="0">
-        <v>7.4453857459967807</v>
+        <v>8.8683474840561463</v>
       </c>
       <c r="X1" s="0">
-        <v>7.4401342459016169</v>
+        <v>8.8682723710973797</v>
       </c>
       <c r="Y1" s="0">
-        <v>7.4356716766577478</v>
+        <v>8.8690630993157775</v>
       </c>
       <c r="Z1" s="0">
-        <v>7.4318503766939514</v>
+        <v>8.8705378584419883</v>
       </c>
       <c r="AA1" s="0">
-        <v>7.4273179712973665</v>
+        <v>8.8725486029778509</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>8.8551195381442778</v>
+        <v>11.993337844045694</v>
       </c>
       <c r="B2" s="0">
-        <v>8.1742627771829568</v>
+        <v>11.034848163322369</v>
       </c>
       <c r="C2" s="0">
-        <v>7.583352837717265</v>
+        <v>10.121479086370039</v>
       </c>
       <c r="D2" s="0">
-        <v>7.1677429123056804</v>
+        <v>9.540499495312103</v>
       </c>
       <c r="E2" s="0">
-        <v>7.000523461717961</v>
+        <v>9.2566978528752753</v>
       </c>
       <c r="F2" s="0">
-        <v>6.8195654320421211</v>
+        <v>8.9794755511915039</v>
       </c>
       <c r="G2" s="0">
-        <v>6.648519779644662</v>
+        <v>8.7149099870632707</v>
       </c>
       <c r="H2" s="0">
-        <v>7.0703260321682384</v>
+        <v>9.0135254597876475</v>
       </c>
       <c r="I2" s="0">
-        <v>7.9685512228791149</v>
+        <v>9.7321629183341205</v>
       </c>
       <c r="J2" s="0">
-        <v>8.6602776527190635</v>
+        <v>10.139060615075765</v>
       </c>
       <c r="K2" s="0">
-        <v>8.3979909044843239</v>
+        <v>9.7243432638506349</v>
       </c>
       <c r="L2" s="0">
-        <v>8.2900089031251376</v>
+        <v>9.5911141704955547</v>
       </c>
       <c r="M2" s="0">
-        <v>8.2223990668471263</v>
+        <v>9.539992929368216</v>
       </c>
       <c r="N2" s="0">
-        <v>8.1630043963940597</v>
+        <v>9.5023950491563518</v>
       </c>
       <c r="O2" s="0">
-        <v>8.113148840003177</v>
+        <v>9.4709850141231673</v>
       </c>
       <c r="P2" s="0">
-        <v>8.0720161627665217</v>
+        <v>9.4450095500615419</v>
       </c>
       <c r="Q2" s="0">
-        <v>8.0397280149581185</v>
+        <v>9.423888763187275</v>
       </c>
       <c r="R2" s="0">
-        <v>8.0256519630642647</v>
+        <v>9.4069455850979189</v>
       </c>
       <c r="S2" s="0">
-        <v>8.0148384780969906</v>
+        <v>9.3964176394976189</v>
       </c>
       <c r="T2" s="0">
-        <v>8.0065280403367929</v>
+        <v>9.3925582178569034</v>
       </c>
       <c r="U2" s="0">
-        <v>8.0001446804979714</v>
+        <v>9.3907703435189269</v>
       </c>
       <c r="V2" s="0">
-        <v>7.9952508754533893</v>
+        <v>9.3906733098468251</v>
       </c>
       <c r="W2" s="0">
-        <v>7.9915135754147366</v>
+        <v>9.3919460067794116</v>
       </c>
       <c r="X2" s="0">
-        <v>7.9886761212119834</v>
+        <v>9.3943197729462344</v>
       </c>
       <c r="Y2" s="0">
-        <v>7.9865415723703519</v>
+        <v>9.3975707273576958</v>
       </c>
       <c r="Z2" s="0">
-        <v>7.9849585658818914</v>
+        <v>9.4015140659119592</v>
       </c>
       <c r="AA2" s="0">
-        <v>7.983809172050738</v>
+        <v>9.4059972770655644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>9.5055595496441736</v>
+        <v>12.247342944937913</v>
       </c>
       <c r="B3" s="0">
-        <v>8.9081310755130065</v>
+        <v>11.382236834208474</v>
       </c>
       <c r="C3" s="0">
-        <v>8.3473299741028217</v>
+        <v>10.579548253339098</v>
       </c>
       <c r="D3" s="0">
-        <v>7.9853054229151113</v>
+        <v>10.074233863428315</v>
       </c>
       <c r="E3" s="0">
-        <v>7.8113472838402016</v>
+        <v>9.8398194370890888</v>
       </c>
       <c r="F3" s="0">
-        <v>7.6246707452298041</v>
+        <v>9.597976802534248</v>
       </c>
       <c r="G3" s="0">
-        <v>7.4317735579081923</v>
+        <v>9.359689718675158</v>
       </c>
       <c r="H3" s="0">
-        <v>7.8225713089141618</v>
+        <v>9.6546932129549283</v>
       </c>
       <c r="I3" s="0">
-        <v>8.6914134329271775</v>
+        <v>10.357254130730897</v>
       </c>
       <c r="J3" s="0">
-        <v>9.2968884255954318</v>
+        <v>10.783910765010335</v>
       </c>
       <c r="K3" s="0">
-        <v>8.9709952412460901</v>
+        <v>10.383115918067555</v>
       </c>
       <c r="L3" s="0">
-        <v>8.8609256316688079</v>
+        <v>10.234151088773643</v>
       </c>
       <c r="M3" s="0">
-        <v>8.833445771087499</v>
+        <v>10.193134485691937</v>
       </c>
       <c r="N3" s="0">
-        <v>8.8132389685470116</v>
+        <v>10.171877618312179</v>
       </c>
       <c r="O3" s="0">
-        <v>8.7931500812999968</v>
+        <v>10.156427031679002</v>
       </c>
       <c r="P3" s="0">
-        <v>8.7740832518047842</v>
+        <v>10.145092450401123</v>
       </c>
       <c r="Q3" s="0">
-        <v>8.756664486287578</v>
+        <v>10.137415524211859</v>
       </c>
       <c r="R3" s="0">
-        <v>8.7410306625671126</v>
+        <v>10.132956022062322</v>
       </c>
       <c r="S3" s="0">
-        <v>8.7271120060275038</v>
+        <v>10.131256414795539</v>
       </c>
       <c r="T3" s="0">
-        <v>8.7147563654389621</v>
+        <v>10.131875185956645</v>
       </c>
       <c r="U3" s="0">
-        <v>8.7037921419433193</v>
+        <v>10.134414247175698</v>
       </c>
       <c r="V3" s="0">
-        <v>8.6940486680991356</v>
+        <v>10.138912836143644</v>
       </c>
       <c r="W3" s="0">
-        <v>8.6853689289456923</v>
+        <v>10.144639272885017</v>
       </c>
       <c r="X3" s="0">
-        <v>8.6776120029545325</v>
+        <v>10.151353665079849</v>
       </c>
       <c r="Y3" s="0">
-        <v>8.6706523994569995</v>
+        <v>10.158854579503782</v>
       </c>
       <c r="Z3" s="0">
-        <v>8.6643809930253735</v>
+        <v>10.166972463980509</v>
       </c>
       <c r="AA3" s="0">
-        <v>8.6587034051932932</v>
+        <v>10.175564815895079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>8.253314953115396</v>
+        <v>11.306636318691716</v>
       </c>
       <c r="B4" s="0">
-        <v>7.6341941830201048</v>
+        <v>10.339907439007668</v>
       </c>
       <c r="C4" s="0">
-        <v>7.0628841664915774</v>
+        <v>9.4548100511365103</v>
       </c>
       <c r="D4" s="0">
-        <v>6.7044750360816137</v>
+        <v>8.8896368280412368</v>
       </c>
       <c r="E4" s="0">
-        <v>6.5435076665920242</v>
+        <v>8.6146439359234073</v>
       </c>
       <c r="F4" s="0">
-        <v>6.3753182675138822</v>
+        <v>8.3425106322329974</v>
       </c>
       <c r="G4" s="0">
-        <v>6.2062712739836172</v>
+        <v>8.0912840967225339</v>
       </c>
       <c r="H4" s="0">
-        <v>6.6200819692684512</v>
+        <v>8.4194997554262869</v>
       </c>
       <c r="I4" s="0">
-        <v>7.5006355547144432</v>
+        <v>9.1691170742707939</v>
       </c>
       <c r="J4" s="0">
-        <v>8.0986237437395392</v>
+        <v>9.6056950919768802</v>
       </c>
       <c r="K4" s="0">
-        <v>7.7658394074891985</v>
+        <v>9.1780075708728894</v>
       </c>
       <c r="L4" s="0">
-        <v>7.6466457534421064</v>
+        <v>9.0377464061489459</v>
       </c>
       <c r="M4" s="0">
-        <v>7.6068659964252294</v>
+        <v>8.9937647999677957</v>
       </c>
       <c r="N4" s="0">
-        <v>7.5669332015060649</v>
+        <v>8.9554083434891592</v>
       </c>
       <c r="O4" s="0">
-        <v>7.4939094486928166</v>
+        <v>8.8902993148617195</v>
       </c>
       <c r="P4" s="0">
-        <v>7.3952318189517641</v>
+        <v>8.8038414238760634</v>
       </c>
       <c r="Q4" s="0">
-        <v>7.2795879527193339</v>
+        <v>8.7026018953235269</v>
       </c>
       <c r="R4" s="0">
-        <v>7.1538530740609234</v>
+        <v>8.5918086424201263</v>
       </c>
       <c r="S4" s="0">
-        <v>7.023990449633633</v>
+        <v>8.4760614972023749</v>
       </c>
       <c r="T4" s="0">
-        <v>6.8947154116950324</v>
+        <v>8.3590472923953349</v>
       </c>
       <c r="U4" s="0">
-        <v>6.7693460478760406</v>
+        <v>8.2434161420754073</v>
       </c>
       <c r="V4" s="0">
-        <v>6.6554793893076178</v>
+        <v>8.1358773317264355</v>
       </c>
       <c r="W4" s="0">
-        <v>6.5664395621650513</v>
+        <v>8.0481766961838339</v>
       </c>
       <c r="X4" s="0">
-        <v>6.4939094650641121</v>
+        <v>7.9730855116117914</v>
       </c>
       <c r="Y4" s="0">
-        <v>6.4327732362364252</v>
+        <v>7.9066069421371994</v>
       </c>
       <c r="Z4" s="0">
-        <v>6.3801817313781486</v>
+        <v>7.8466969218897313</v>
       </c>
       <c r="AA4" s="0">
-        <v>6.3340961261253952</v>
+        <v>7.7919509846995449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>8.8551195381442778</v>
+        <v>11.993337844045694</v>
       </c>
       <c r="B5" s="0">
-        <v>8.1742627771829568</v>
+        <v>11.034848163322369</v>
       </c>
       <c r="C5" s="0">
-        <v>7.583352837717265</v>
+        <v>10.121479086370039</v>
       </c>
       <c r="D5" s="0">
-        <v>7.1677429123056804</v>
+        <v>9.540499495312103</v>
       </c>
       <c r="E5" s="0">
-        <v>7.000523461717961</v>
+        <v>9.2566978528752753</v>
       </c>
       <c r="F5" s="0">
-        <v>6.8195654320421211</v>
+        <v>8.9794755511915039</v>
       </c>
       <c r="G5" s="0">
-        <v>6.648519779644662</v>
+        <v>8.7149099870632707</v>
       </c>
       <c r="H5" s="0">
-        <v>7.0703260321682384</v>
+        <v>9.0135254597876475</v>
       </c>
       <c r="I5" s="0">
-        <v>7.9685512228791149</v>
+        <v>9.7321629183341205</v>
       </c>
       <c r="J5" s="0">
-        <v>8.6602776527190635</v>
+        <v>10.139060615075765</v>
       </c>
       <c r="K5" s="0">
-        <v>8.3979909044843239</v>
+        <v>9.7243432638506349</v>
       </c>
       <c r="L5" s="0">
-        <v>8.2900089031251376</v>
+        <v>9.5911141704955547</v>
       </c>
       <c r="M5" s="0">
-        <v>8.2223991530631029</v>
+        <v>9.5399933558598899</v>
       </c>
       <c r="N5" s="0">
-        <v>8.1526708858962245</v>
+        <v>9.4953017437058378</v>
       </c>
       <c r="O5" s="0">
-        <v>8.0523049967382932</v>
+        <v>9.4295320393427726</v>
       </c>
       <c r="P5" s="0">
-        <v>7.926000329985218</v>
+        <v>9.3469840936743438</v>
       </c>
       <c r="Q5" s="0">
-        <v>7.795475608184006</v>
+        <v>9.2527404406222509</v>
       </c>
       <c r="R5" s="0">
-        <v>7.6611964179204044</v>
+        <v>9.1507445971095702</v>
       </c>
       <c r="S5" s="0">
-        <v>7.5223472732417225</v>
+        <v>9.0445495369119442</v>
       </c>
       <c r="T5" s="0">
-        <v>7.384231547709204</v>
+        <v>8.9370796023207362</v>
       </c>
       <c r="U5" s="0">
-        <v>7.2506228565295059</v>
+        <v>8.8304928690298734</v>
       </c>
       <c r="V5" s="0">
-        <v>7.1294539300503237</v>
+        <v>8.7294948367183558</v>
       </c>
       <c r="W5" s="0">
-        <v>7.0345568087723809</v>
+        <v>8.6437749202771546</v>
       </c>
       <c r="X5" s="0">
-        <v>6.9579743925673086</v>
+        <v>8.5684135336567717</v>
       </c>
       <c r="Y5" s="0">
-        <v>6.8942880211803486</v>
+        <v>8.4962969483973136</v>
       </c>
       <c r="Z5" s="0">
-        <v>6.8401673302248725</v>
+        <v>8.4312286198890902</v>
       </c>
       <c r="AA5" s="0">
-        <v>6.7931613495427561</v>
+        <v>8.3716972369383864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>9.5055595496441736</v>
+        <v>12.247342944937913</v>
       </c>
       <c r="B6" s="0">
-        <v>8.9081310755130065</v>
+        <v>11.382236834208474</v>
       </c>
       <c r="C6" s="0">
-        <v>8.3473299741028217</v>
+        <v>10.579548253339098</v>
       </c>
       <c r="D6" s="0">
-        <v>7.9853054229151113</v>
+        <v>10.074233863428315</v>
       </c>
       <c r="E6" s="0">
-        <v>7.8113472838402016</v>
+        <v>9.8398194370890888</v>
       </c>
       <c r="F6" s="0">
-        <v>7.6246707452298041</v>
+        <v>9.597976802534248</v>
       </c>
       <c r="G6" s="0">
-        <v>7.4317735579081923</v>
+        <v>9.359689718675158</v>
       </c>
       <c r="H6" s="0">
-        <v>7.8225713089141618</v>
+        <v>9.6546932129549283</v>
       </c>
       <c r="I6" s="0">
-        <v>8.6914134329271775</v>
+        <v>10.357254130730897</v>
       </c>
       <c r="J6" s="0">
-        <v>9.2968884255954318</v>
+        <v>10.783910765010335</v>
       </c>
       <c r="K6" s="0">
-        <v>8.9709952412460901</v>
+        <v>10.383115918067555</v>
       </c>
       <c r="L6" s="0">
-        <v>8.8609256316688079</v>
+        <v>10.234151088773643</v>
       </c>
       <c r="M6" s="0">
-        <v>8.8334457787632061</v>
+        <v>10.193134332758678</v>
       </c>
       <c r="N6" s="0">
-        <v>8.802832930712766</v>
+        <v>10.163174416671444</v>
       </c>
       <c r="O6" s="0">
-        <v>8.7319320663719626</v>
+        <v>10.104716721833661</v>
       </c>
       <c r="P6" s="0">
-        <v>8.6295947255484222</v>
+        <v>10.0220843387218</v>
       </c>
       <c r="Q6" s="0">
-        <v>8.5062285096057924</v>
+        <v>9.9225278179064098</v>
       </c>
       <c r="R6" s="0">
-        <v>8.3699007751552603</v>
+        <v>9.8116716011831571</v>
       </c>
       <c r="S6" s="0">
-        <v>8.2274643519772699</v>
+        <v>9.6943479277977502</v>
       </c>
       <c r="T6" s="0">
-        <v>8.0843080557688296</v>
+        <v>9.5744032664953771</v>
       </c>
       <c r="U6" s="0">
-        <v>7.944256467782405</v>
+        <v>9.4546097410508718</v>
       </c>
       <c r="V6" s="0">
-        <v>7.8158210481429578</v>
+        <v>9.341926565486558</v>
       </c>
       <c r="W6" s="0">
-        <v>7.7138340534990659</v>
+        <v>9.249117787989956</v>
       </c>
       <c r="X6" s="0">
-        <v>7.6292715407189702</v>
+        <v>9.1688491566567088</v>
       </c>
       <c r="Y6" s="0">
-        <v>7.5566888508339636</v>
+        <v>9.096747336743924</v>
       </c>
       <c r="Z6" s="0">
-        <v>7.4932343405263175</v>
+        <v>9.0307748158694157</v>
       </c>
       <c r="AA6" s="0">
-        <v>7.4369151003743932</v>
+        <v>8.9696350745582496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>8.253314953115396</v>
+        <v>11.306636318691716</v>
       </c>
       <c r="B7" s="0">
-        <v>7.6341941830201048</v>
+        <v>10.339907439007668</v>
       </c>
       <c r="C7" s="0">
-        <v>7.0628841664915774</v>
+        <v>9.4548100511365103</v>
       </c>
       <c r="D7" s="0">
-        <v>6.7044750360816137</v>
+        <v>8.8896368280412368</v>
       </c>
       <c r="E7" s="0">
-        <v>6.5435076665920242</v>
+        <v>8.6146439359234073</v>
       </c>
       <c r="F7" s="0">
-        <v>6.3753182675138822</v>
+        <v>8.3425106322329974</v>
       </c>
       <c r="G7" s="0">
-        <v>6.2062712739836172</v>
+        <v>8.0912840967225339</v>
       </c>
       <c r="H7" s="0">
-        <v>6.6200819692684512</v>
+        <v>8.4194997554262869</v>
       </c>
       <c r="I7" s="0">
-        <v>7.5006355547144432</v>
+        <v>9.1691170742707939</v>
       </c>
       <c r="J7" s="0">
-        <v>8.0986237437395392</v>
+        <v>9.6056950919768802</v>
       </c>
       <c r="K7" s="0">
-        <v>7.7658394074891985</v>
+        <v>9.1780075708728894</v>
       </c>
       <c r="L7" s="0">
-        <v>7.6466457534421064</v>
+        <v>9.0377464061489459</v>
       </c>
       <c r="M7" s="0">
-        <v>7.6068659962368246</v>
+        <v>8.9937647999494388</v>
       </c>
       <c r="N7" s="0">
-        <v>7.5667511789472988</v>
+        <v>8.9552489592861555</v>
       </c>
       <c r="O7" s="0">
-        <v>7.4931482444491033</v>
+        <v>8.8896346308057339</v>
       </c>
       <c r="P7" s="0">
-        <v>7.3939414688813976</v>
+        <v>8.8027190126504635</v>
       </c>
       <c r="Q7" s="0">
-        <v>7.2779087849285986</v>
+        <v>8.7011440594538812</v>
       </c>
       <c r="R7" s="0">
-        <v>7.1519177366297564</v>
+        <v>8.5901260926935326</v>
       </c>
       <c r="S7" s="0">
-        <v>7.0219166432121449</v>
+        <v>8.4742493487075539</v>
       </c>
       <c r="T7" s="0">
-        <v>6.8926067230654189</v>
+        <v>8.3571882375200062</v>
       </c>
       <c r="U7" s="0">
-        <v>6.7672932723343155</v>
+        <v>8.2415832910644618</v>
       </c>
       <c r="V7" s="0">
-        <v>6.6537444397962924</v>
+        <v>8.1342990057617399</v>
       </c>
       <c r="W7" s="0">
-        <v>6.5654986451871</v>
+        <v>8.0472755128479356</v>
       </c>
       <c r="X7" s="0">
-        <v>6.4937694051488082</v>
+        <v>7.9728689346941719</v>
       </c>
       <c r="Y7" s="0">
-        <v>6.4333356124675829</v>
+        <v>7.9069914133015375</v>
       </c>
       <c r="Z7" s="0">
-        <v>6.381356247095769</v>
+        <v>7.8476087548973741</v>
       </c>
       <c r="AA7" s="0">
-        <v>6.3358107475551657</v>
+        <v>7.793333664144428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>8.8551195381442778</v>
+        <v>11.993337844045694</v>
       </c>
       <c r="B8" s="0">
-        <v>8.1742627771829568</v>
+        <v>11.034848163322369</v>
       </c>
       <c r="C8" s="0">
-        <v>7.583352837717265</v>
+        <v>10.121479086370039</v>
       </c>
       <c r="D8" s="0">
-        <v>7.1677429123056804</v>
+        <v>9.540499495312103</v>
       </c>
       <c r="E8" s="0">
-        <v>7.000523461717961</v>
+        <v>9.2566978528752753</v>
       </c>
       <c r="F8" s="0">
-        <v>6.8195654320421211</v>
+        <v>8.9794755511915039</v>
       </c>
       <c r="G8" s="0">
-        <v>6.648519779644662</v>
+        <v>8.7149099870632707</v>
       </c>
       <c r="H8" s="0">
-        <v>7.0703260321682384</v>
+        <v>9.0135254597876475</v>
       </c>
       <c r="I8" s="0">
-        <v>7.9685512228791149</v>
+        <v>9.7321629183341205</v>
       </c>
       <c r="J8" s="0">
-        <v>8.6602776527190635</v>
+        <v>10.139060615075765</v>
       </c>
       <c r="K8" s="0">
-        <v>8.3979909044843239</v>
+        <v>9.7243432638506349</v>
       </c>
       <c r="L8" s="0">
-        <v>8.2900089031251376</v>
+        <v>9.5911141704955547</v>
       </c>
       <c r="M8" s="0">
-        <v>8.2223991530268599</v>
+        <v>9.5399933554699317</v>
       </c>
       <c r="N8" s="0">
-        <v>8.152432653449539</v>
+        <v>9.4951305558288173</v>
       </c>
       <c r="O8" s="0">
-        <v>8.051294679739847</v>
+        <v>9.428815854935749</v>
       </c>
       <c r="P8" s="0">
-        <v>7.9242592229433972</v>
+        <v>9.3457703119416244</v>
       </c>
       <c r="Q8" s="0">
-        <v>7.7934120843476924</v>
+        <v>9.2511570903131339</v>
       </c>
       <c r="R8" s="0">
-        <v>7.6588175877605824</v>
+        <v>9.1489088336080115</v>
       </c>
       <c r="S8" s="0">
-        <v>7.5198033317089026</v>
+        <v>9.042563096111337</v>
       </c>
       <c r="T8" s="0">
-        <v>7.3816546742658815</v>
+        <v>8.9350320211848562</v>
       </c>
       <c r="U8" s="0">
-        <v>7.2481276475073972</v>
+        <v>8.82846437189502</v>
       </c>
       <c r="V8" s="0">
-        <v>7.1273594864740986</v>
+        <v>8.7276609726869534</v>
       </c>
       <c r="W8" s="0">
-        <v>7.0334422719175818</v>
+        <v>8.6427304146676729</v>
       </c>
       <c r="X8" s="0">
-        <v>6.9578535112738891</v>
+        <v>8.5681595743647687</v>
       </c>
       <c r="Y8" s="0">
-        <v>6.8950406830458864</v>
+        <v>8.4966882831556578</v>
       </c>
       <c r="Z8" s="0">
-        <v>6.8416785381636789</v>
+        <v>8.4321837187837403</v>
       </c>
       <c r="AA8" s="0">
-        <v>6.795336839697808</v>
+        <v>8.3731535229883107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>9.5055595496441736</v>
+        <v>12.247342944937913</v>
       </c>
       <c r="B9" s="0">
-        <v>8.9081310755130065</v>
+        <v>11.382236834208474</v>
       </c>
       <c r="C9" s="0">
-        <v>8.3473299741028217</v>
+        <v>10.579548253339098</v>
       </c>
       <c r="D9" s="0">
-        <v>7.9853054229151113</v>
+        <v>10.074233863428315</v>
       </c>
       <c r="E9" s="0">
-        <v>7.8113472838402016</v>
+        <v>9.8398194370890888</v>
       </c>
       <c r="F9" s="0">
-        <v>7.6246707452298041</v>
+        <v>9.597976802534248</v>
       </c>
       <c r="G9" s="0">
-        <v>7.4317735579081923</v>
+        <v>9.359689718675158</v>
       </c>
       <c r="H9" s="0">
-        <v>7.8225713089141618</v>
+        <v>9.6546932129549283</v>
       </c>
       <c r="I9" s="0">
-        <v>8.6914134329271775</v>
+        <v>10.357254130730897</v>
       </c>
       <c r="J9" s="0">
-        <v>9.2968884255954318</v>
+        <v>10.783910765010335</v>
       </c>
       <c r="K9" s="0">
-        <v>8.9709952412460901</v>
+        <v>10.383115918067555</v>
       </c>
       <c r="L9" s="0">
-        <v>8.8609256316688079</v>
+        <v>10.234151088773643</v>
       </c>
       <c r="M9" s="0">
-        <v>8.8334457787188168</v>
+        <v>10.19313433263979</v>
       </c>
       <c r="N9" s="0">
-        <v>8.80266175058701</v>
+        <v>10.163047713071611</v>
       </c>
       <c r="O9" s="0">
-        <v>8.731214595272446</v>
+        <v>10.104189557147656</v>
       </c>
       <c r="P9" s="0">
-        <v>8.6283756507472926</v>
+        <v>10.021196698962269</v>
       </c>
       <c r="Q9" s="0">
-        <v>8.5046364837397874</v>
+        <v>9.9213776566465661</v>
       </c>
       <c r="R9" s="0">
-        <v>8.3680565269328753</v>
+        <v>9.8103455512745992</v>
       </c>
       <c r="S9" s="0">
-        <v>8.2254751262162795</v>
+        <v>9.6929189059157572</v>
       </c>
       <c r="T9" s="0">
-        <v>8.0822693790208788</v>
+        <v>9.5729339134364686</v>
       </c>
       <c r="U9" s="0">
-        <v>7.9422538136267038</v>
+        <v>9.4531553107906738</v>
       </c>
       <c r="V9" s="0">
-        <v>7.8141057488301682</v>
+        <v>9.3406677617027611</v>
       </c>
       <c r="W9" s="0">
-        <v>7.7128644322708775</v>
+        <v>9.2483912448611925</v>
       </c>
       <c r="X9" s="0">
-        <v>7.6290584921178972</v>
+        <v>9.1686577724141962</v>
       </c>
       <c r="Y9" s="0">
-        <v>7.5571445710231871</v>
+        <v>9.0970225532842335</v>
       </c>
       <c r="Z9" s="0">
-        <v>7.494280151808284</v>
+        <v>9.0314583093648668</v>
       </c>
       <c r="AA9" s="0">
-        <v>7.4384894726139788</v>
+        <v>8.9706837259620489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>8.253314953115396</v>
+        <v>11.306636318691716</v>
       </c>
       <c r="B10" s="0">
-        <v>7.6341941830201048</v>
+        <v>10.339907439007668</v>
       </c>
       <c r="C10" s="0">
-        <v>7.0628841664915774</v>
+        <v>9.4548100511365103</v>
       </c>
       <c r="D10" s="0">
-        <v>6.7044750360816137</v>
+        <v>8.8896368280412368</v>
       </c>
       <c r="E10" s="0">
-        <v>6.5435076665920242</v>
+        <v>8.6146439359234073</v>
       </c>
       <c r="F10" s="0">
-        <v>6.3753182675138822</v>
+        <v>8.3425106322329974</v>
       </c>
       <c r="G10" s="0">
-        <v>6.2062712739836172</v>
+        <v>8.0912840967225339</v>
       </c>
       <c r="H10" s="0">
-        <v>6.6200819692684512</v>
+        <v>8.4194997554262869</v>
       </c>
       <c r="I10" s="0">
-        <v>7.5006355547144432</v>
+        <v>9.1691170742707939</v>
       </c>
       <c r="J10" s="0">
-        <v>8.0986237437395392</v>
+        <v>9.6056950919768802</v>
       </c>
       <c r="K10" s="0">
-        <v>7.7658394074891985</v>
+        <v>9.1780075708728894</v>
       </c>
       <c r="L10" s="0">
-        <v>7.6466457534421064</v>
+        <v>9.0377464061489459</v>
       </c>
       <c r="M10" s="0">
-        <v>7.6068659962184775</v>
+        <v>8.9937647999496697</v>
       </c>
       <c r="N10" s="0">
-        <v>7.565096787931747</v>
+        <v>8.9532576538593407</v>
       </c>
       <c r="O10" s="0">
-        <v>7.4732521781655796</v>
+        <v>8.8647170213573094</v>
       </c>
       <c r="P10" s="0">
-        <v>7.3272952317268452</v>
+        <v>8.7162134079451228</v>
       </c>
       <c r="Q10" s="0">
-        <v>7.1401512315784119</v>
+        <v>8.5168421749860688</v>
       </c>
       <c r="R10" s="0">
-        <v>6.9279851918603681</v>
+        <v>8.2827183154596202</v>
       </c>
       <c r="S10" s="0">
-        <v>6.7055942854480088</v>
+        <v>8.030479131508562</v>
       </c>
       <c r="T10" s="0">
-        <v>6.4844190166886371</v>
+        <v>7.7741367781381863</v>
       </c>
       <c r="U10" s="0">
-        <v>6.2722246724833317</v>
+        <v>7.5240370234091207</v>
       </c>
       <c r="V10" s="0">
-        <v>6.0800702381407508</v>
+        <v>7.2930050246074432</v>
       </c>
       <c r="W10" s="0">
-        <v>5.9294878429858642</v>
+        <v>7.1039579816621305</v>
       </c>
       <c r="X10" s="0">
-        <v>5.8157318824739823</v>
+        <v>6.9553771946005334</v>
       </c>
       <c r="Y10" s="0">
-        <v>5.7294528998879129</v>
+        <v>6.8390956298016397</v>
       </c>
       <c r="Z10" s="0">
-        <v>5.6626180360562302</v>
+        <v>6.7466627352494912</v>
       </c>
       <c r="AA10" s="0">
-        <v>5.6092144139850761</v>
+        <v>6.66432367930111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>8.8551195381442778</v>
+        <v>11.993337844045694</v>
       </c>
       <c r="B11" s="0">
-        <v>8.1742627771829568</v>
+        <v>11.034848163322369</v>
       </c>
       <c r="C11" s="0">
-        <v>7.583352837717265</v>
+        <v>10.121479086370039</v>
       </c>
       <c r="D11" s="0">
-        <v>7.1677429123056804</v>
+        <v>9.540499495312103</v>
       </c>
       <c r="E11" s="0">
-        <v>7.000523461717961</v>
+        <v>9.2566978528752753</v>
       </c>
       <c r="F11" s="0">
-        <v>6.8195654320421211</v>
+        <v>8.9794755511915039</v>
       </c>
       <c r="G11" s="0">
-        <v>6.648519779644662</v>
+        <v>8.7149099870632707</v>
       </c>
       <c r="H11" s="0">
-        <v>7.0703260321682384</v>
+        <v>9.0135254597876475</v>
       </c>
       <c r="I11" s="0">
-        <v>7.9685512228791149</v>
+        <v>9.7321629183341205</v>
       </c>
       <c r="J11" s="0">
-        <v>8.6602776527190635</v>
+        <v>10.139060615075765</v>
       </c>
       <c r="K11" s="0">
-        <v>8.3979909044843239</v>
+        <v>9.7243432638506349</v>
       </c>
       <c r="L11" s="0">
-        <v>8.2900089031251376</v>
+        <v>9.5911141704955547</v>
       </c>
       <c r="M11" s="0">
-        <v>8.2223991530177987</v>
+        <v>9.5399933553104024</v>
       </c>
       <c r="N11" s="0">
-        <v>8.1495285521147682</v>
+        <v>9.4924888781901338</v>
       </c>
       <c r="O11" s="0">
-        <v>8.0212560945363798</v>
+        <v>9.396472443224436</v>
       </c>
       <c r="P11" s="0">
-        <v>7.8492445284185521</v>
+        <v>9.2360956667855945</v>
       </c>
       <c r="Q11" s="0">
-        <v>7.6587300907533011</v>
+        <v>9.0391097164815069</v>
       </c>
       <c r="R11" s="0">
-        <v>7.4463523612911704</v>
+        <v>8.8044597455605782</v>
       </c>
       <c r="S11" s="0">
-        <v>7.2263204736717173</v>
+        <v>8.5485156269074363</v>
       </c>
       <c r="T11" s="0">
-        <v>6.941629954323143</v>
+        <v>8.2857530924223948</v>
       </c>
       <c r="U11" s="0">
-        <v>6.7118193693846466</v>
+        <v>8.0273047080974944</v>
       </c>
       <c r="V11" s="0">
-        <v>6.5185127870466992</v>
+        <v>7.7862905039388073</v>
       </c>
       <c r="W11" s="0">
-        <v>6.3670115064127062</v>
+        <v>7.5852605753643241</v>
       </c>
       <c r="X11" s="0">
-        <v>6.2528801664040197</v>
+        <v>7.4158918556351212</v>
       </c>
       <c r="Y11" s="0">
-        <v>6.166259630742589</v>
+        <v>7.2680590441079103</v>
       </c>
       <c r="Z11" s="0">
-        <v>6.0988189034730249</v>
+        <v>7.1505936767116465</v>
       </c>
       <c r="AA11" s="0">
-        <v>6.0444814195555541</v>
+        <v>7.055581795368906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>9.5055595496441736</v>
+        <v>12.247342944937913</v>
       </c>
       <c r="B12" s="0">
-        <v>8.9081310755130065</v>
+        <v>11.382236834208474</v>
       </c>
       <c r="C12" s="0">
-        <v>8.3473299741028217</v>
+        <v>10.579548253339098</v>
       </c>
       <c r="D12" s="0">
-        <v>7.9853054229151113</v>
+        <v>10.074233863428315</v>
       </c>
       <c r="E12" s="0">
-        <v>7.8113472838402016</v>
+        <v>9.8398194370890888</v>
       </c>
       <c r="F12" s="0">
-        <v>7.6246707452298041</v>
+        <v>9.597976802534248</v>
       </c>
       <c r="G12" s="0">
-        <v>7.4317735579081923</v>
+        <v>9.359689718675158</v>
       </c>
       <c r="H12" s="0">
-        <v>7.8225713089141618</v>
+        <v>9.6546932129549283</v>
       </c>
       <c r="I12" s="0">
-        <v>8.6914134329271775</v>
+        <v>10.357254130730897</v>
       </c>
       <c r="J12" s="0">
-        <v>9.2968884255954318</v>
+        <v>10.783910765010335</v>
       </c>
       <c r="K12" s="0">
-        <v>8.9709952412460901</v>
+        <v>10.383115918067555</v>
       </c>
       <c r="L12" s="0">
-        <v>8.8609256316688079</v>
+        <v>10.234151088773643</v>
       </c>
       <c r="M12" s="0">
-        <v>8.8334457787102583</v>
+        <v>10.19313433262143</v>
       </c>
       <c r="N12" s="0">
-        <v>8.8005961908692232</v>
+        <v>10.161369681957225</v>
       </c>
       <c r="O12" s="0">
-        <v>8.7052988355203968</v>
+        <v>10.080627742943978</v>
       </c>
       <c r="P12" s="0">
-        <v>8.538231760226763</v>
+        <v>9.9333049260129869</v>
       </c>
       <c r="Q12" s="0">
-        <v>8.3124493184736874</v>
+        <v>9.7249294423649602</v>
       </c>
       <c r="R12" s="0">
-        <v>8.0476732584801258</v>
+        <v>9.4711880352140767</v>
       </c>
       <c r="S12" s="0">
-        <v>7.7636411598267241</v>
+        <v>9.1903880626229029</v>
       </c>
       <c r="T12" s="0">
-        <v>7.476805052785128</v>
+        <v>8.8992169389363074</v>
       </c>
       <c r="U12" s="0">
-        <v>7.1998711467466263</v>
+        <v>8.6108576250735176</v>
       </c>
       <c r="V12" s="0">
-        <v>6.946513066475803</v>
+        <v>8.3406095151207875</v>
       </c>
       <c r="W12" s="0">
-        <v>6.7426888581016939</v>
+        <v>8.1136075170388207</v>
       </c>
       <c r="X12" s="0">
-        <v>6.5854230726148018</v>
+        <v>7.9306760808407954</v>
       </c>
       <c r="Y12" s="0">
-        <v>6.4648267881172377</v>
+        <v>7.7849151653475515</v>
       </c>
       <c r="Z12" s="0">
-        <v>6.37132691833283</v>
+        <v>7.6680576909246128</v>
       </c>
       <c r="AA12" s="0">
-        <v>6.3041022266499089</v>
+        <v>7.5727867164728373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>8.253314953115396</v>
+        <v>11.306636318691716</v>
       </c>
       <c r="B13" s="0">
-        <v>7.6341941830201048</v>
+        <v>10.339907439007668</v>
       </c>
       <c r="C13" s="0">
-        <v>7.0628841664915774</v>
+        <v>9.4548100511365103</v>
       </c>
       <c r="D13" s="0">
-        <v>6.7044750360816137</v>
+        <v>8.8896368280412368</v>
       </c>
       <c r="E13" s="0">
-        <v>6.5435076665920242</v>
+        <v>8.6146439359234073</v>
       </c>
       <c r="F13" s="0">
-        <v>6.3753182675138822</v>
+        <v>8.3425106322329974</v>
       </c>
       <c r="G13" s="0">
-        <v>6.2062712739836172</v>
+        <v>8.0912840967225339</v>
       </c>
       <c r="H13" s="0">
-        <v>6.6200819692684512</v>
+        <v>8.4194997554262869</v>
       </c>
       <c r="I13" s="0">
-        <v>7.5006355547144432</v>
+        <v>9.1691170742707939</v>
       </c>
       <c r="J13" s="0">
-        <v>8.0986237437395392</v>
+        <v>9.6056950919768802</v>
       </c>
       <c r="K13" s="0">
-        <v>7.7658394074891985</v>
+        <v>9.1780075708728894</v>
       </c>
       <c r="L13" s="0">
-        <v>7.6466457534421064</v>
+        <v>9.0377464061489459</v>
       </c>
       <c r="M13" s="0">
-        <v>7.6068659962182545</v>
+        <v>8.9937647999675647</v>
       </c>
       <c r="N13" s="0">
-        <v>7.5650875207605841</v>
+        <v>8.9532887641093293</v>
       </c>
       <c r="O13" s="0">
-        <v>7.4725892449640039</v>
+        <v>8.8640858561066089</v>
       </c>
       <c r="P13" s="0">
-        <v>7.3238520581043964</v>
+        <v>8.7117489809968696</v>
       </c>
       <c r="Q13" s="0">
-        <v>7.1314050563419151</v>
+        <v>8.5042603710495612</v>
       </c>
       <c r="R13" s="0">
-        <v>6.9120069816083802</v>
+        <v>8.258345911937873</v>
       </c>
       <c r="S13" s="0">
-        <v>6.6813552908512168</v>
+        <v>7.9920022029312783</v>
       </c>
       <c r="T13" s="0">
-        <v>6.4517369635443593</v>
+        <v>7.7207216204579563</v>
       </c>
       <c r="U13" s="0">
-        <v>6.2315668539635931</v>
+        <v>7.4561284837962445</v>
       </c>
       <c r="V13" s="0">
-        <v>6.0323391722881521</v>
+        <v>7.211995073743064</v>
       </c>
       <c r="W13" s="0">
-        <v>5.8761013446527386</v>
+        <v>7.0121327623744136</v>
       </c>
       <c r="X13" s="0">
-        <v>5.7586527415988149</v>
+        <v>6.8559333675586647</v>
       </c>
       <c r="Y13" s="0">
-        <v>5.6705143945430665</v>
+        <v>6.7332313843568938</v>
       </c>
       <c r="Z13" s="0">
-        <v>5.6031535590764685</v>
+        <v>6.6274299759897168</v>
       </c>
       <c r="AA13" s="0">
-        <v>5.5500572416658018</v>
+        <v>6.5437797579904808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>8.8551195381442778</v>
+        <v>11.993337844045694</v>
       </c>
       <c r="B14" s="0">
-        <v>8.1742627771829568</v>
+        <v>11.034848163322369</v>
       </c>
       <c r="C14" s="0">
-        <v>7.583352837717265</v>
+        <v>10.121479086370039</v>
       </c>
       <c r="D14" s="0">
-        <v>7.1677429123056804</v>
+        <v>9.540499495312103</v>
       </c>
       <c r="E14" s="0">
-        <v>7.000523461717961</v>
+        <v>9.2566978528752753</v>
       </c>
       <c r="F14" s="0">
-        <v>6.8195654320421211</v>
+        <v>8.9794755511915039</v>
       </c>
       <c r="G14" s="0">
-        <v>6.648519779644662</v>
+        <v>8.7149099870632707</v>
       </c>
       <c r="H14" s="0">
-        <v>7.0703260321682384</v>
+        <v>9.0135254597876475</v>
       </c>
       <c r="I14" s="0">
-        <v>7.9685512228791149</v>
+        <v>9.7321629183341205</v>
       </c>
       <c r="J14" s="0">
-        <v>8.6602776527190635</v>
+        <v>10.139060615075765</v>
       </c>
       <c r="K14" s="0">
-        <v>8.3979909044843239</v>
+        <v>9.7243432638506349</v>
       </c>
       <c r="L14" s="0">
-        <v>8.2900089031251376</v>
+        <v>9.5911141704955547</v>
       </c>
       <c r="M14" s="0">
-        <v>8.2223991530268599</v>
+        <v>9.5399933553458531</v>
       </c>
       <c r="N14" s="0">
-        <v>8.1494460923554435</v>
+        <v>9.4924887512595308</v>
       </c>
       <c r="O14" s="0">
-        <v>8.020052223440743</v>
+        <v>9.3954805880733972</v>
       </c>
       <c r="P14" s="0">
-        <v>7.8449903448214853</v>
+        <v>9.2312293676205073</v>
       </c>
       <c r="Q14" s="0">
-        <v>7.6491369334580055</v>
+        <v>9.0248790860468997</v>
       </c>
       <c r="R14" s="0">
-        <v>7.4300343157376592</v>
+        <v>8.7763721432574098</v>
       </c>
       <c r="S14" s="0">
-        <v>7.2027283045076071</v>
+        <v>8.5036259391391855</v>
       </c>
       <c r="T14" s="0">
-        <v>6.9024774405642671</v>
+        <v>8.2228703458214945</v>
       </c>
       <c r="U14" s="0">
-        <v>6.6670339801307161</v>
+        <v>7.9467987605831318</v>
       </c>
       <c r="V14" s="0">
-        <v>6.4663884028476888</v>
+        <v>7.6897186245791005</v>
       </c>
       <c r="W14" s="0">
-        <v>6.3091497701362993</v>
+        <v>7.4752630457361171</v>
       </c>
       <c r="X14" s="0">
-        <v>6.1914111972546238</v>
+        <v>7.2911738856671864</v>
       </c>
       <c r="Y14" s="0">
-        <v>6.1030692333076662</v>
+        <v>7.136756566130857</v>
       </c>
       <c r="Z14" s="0">
-        <v>6.0352168884636148</v>
+        <v>7.0161902128007281</v>
       </c>
       <c r="AA14" s="0">
-        <v>5.9812492287820627</v>
+        <v>6.9206418735617783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>9.5055595496441736</v>
+        <v>12.247342944937913</v>
       </c>
       <c r="B15" s="0">
-        <v>8.9081310755130065</v>
+        <v>11.382236834208474</v>
       </c>
       <c r="C15" s="0">
-        <v>8.3473299741028217</v>
+        <v>10.579548253339098</v>
       </c>
       <c r="D15" s="0">
-        <v>7.9853054229151113</v>
+        <v>10.074233863428315</v>
       </c>
       <c r="E15" s="0">
-        <v>7.8113472838402016</v>
+        <v>9.8398194370890888</v>
       </c>
       <c r="F15" s="0">
-        <v>7.6246707452298041</v>
+        <v>9.597976802534248</v>
       </c>
       <c r="G15" s="0">
-        <v>7.4317735579081923</v>
+        <v>9.359689718675158</v>
       </c>
       <c r="H15" s="0">
-        <v>7.8225713089141618</v>
+        <v>9.6546932129549283</v>
       </c>
       <c r="I15" s="0">
-        <v>8.6914134329271775</v>
+        <v>10.357254130730897</v>
       </c>
       <c r="J15" s="0">
-        <v>9.2968884255954318</v>
+        <v>10.783910765010335</v>
       </c>
       <c r="K15" s="0">
-        <v>8.9709952412460901</v>
+        <v>10.383115918067555</v>
       </c>
       <c r="L15" s="0">
-        <v>8.8609256316688079</v>
+        <v>10.234151088773643</v>
       </c>
       <c r="M15" s="0">
-        <v>8.8334457787102583</v>
+        <v>10.193134332612479</v>
       </c>
       <c r="N15" s="0">
-        <v>8.8006136489212832</v>
+        <v>10.161484580551488</v>
       </c>
       <c r="O15" s="0">
-        <v>8.7046124062747445</v>
+        <v>10.080444722664353</v>
       </c>
       <c r="P15" s="0">
-        <v>8.5338367804141626</v>
+        <v>9.9289642792039157</v>
       </c>
       <c r="Q15" s="0">
-        <v>8.3003765855745826</v>
+        <v>9.7104729890995074</v>
       </c>
       <c r="R15" s="0">
-        <v>8.0245640311234983</v>
+        <v>9.441037559865519</v>
       </c>
       <c r="S15" s="0">
-        <v>7.7274058548905122</v>
+        <v>9.1406191377519068</v>
       </c>
       <c r="T15" s="0">
-        <v>7.4267485658488521</v>
+        <v>8.8279517786077015</v>
       </c>
       <c r="U15" s="0">
-        <v>7.1364037422090956</v>
+        <v>8.5181411161445819</v>
       </c>
       <c r="V15" s="0">
-        <v>6.8709146124733538</v>
+        <v>8.2280113007372666</v>
       </c>
       <c r="W15" s="0">
-        <v>6.6570897397198881</v>
+        <v>7.9840086381831661</v>
       </c>
       <c r="X15" s="0">
-        <v>6.4928812396753557</v>
+        <v>7.7884580782463111</v>
       </c>
       <c r="Y15" s="0">
-        <v>6.3747780507435543</v>
+        <v>7.6347740163989446</v>
       </c>
       <c r="Z15" s="0">
-        <v>6.2994347078934965</v>
+        <v>7.5139676744167385</v>
       </c>
       <c r="AA15" s="0">
-        <v>6.2404172067282051</v>
+        <v>7.4177123228879456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>8.253314953115396</v>
+        <v>11.306636318691716</v>
       </c>
       <c r="B16" s="0">
-        <v>7.6341941830201048</v>
+        <v>10.339907439007668</v>
       </c>
       <c r="C16" s="0">
-        <v>7.0628841664915774</v>
+        <v>9.4548100511365103</v>
       </c>
       <c r="D16" s="0">
-        <v>6.7044750360816137</v>
+        <v>8.8896368280412368</v>
       </c>
       <c r="E16" s="0">
-        <v>6.5435076665920242</v>
+        <v>8.6146439359234073</v>
       </c>
       <c r="F16" s="0">
-        <v>6.3753182675138822</v>
+        <v>8.3425106322329974</v>
       </c>
       <c r="G16" s="0">
-        <v>6.2062712739836172</v>
+        <v>8.0912840967225339</v>
       </c>
       <c r="H16" s="0">
-        <v>6.6200819692684512</v>
+        <v>8.4194997554262869</v>
       </c>
       <c r="I16" s="0">
-        <v>7.5006355547144432</v>
+        <v>9.1691170742707939</v>
       </c>
       <c r="J16" s="0">
-        <v>8.0986237437395392</v>
+        <v>9.6056950919768802</v>
       </c>
       <c r="K16" s="0">
-        <v>7.7658394074891985</v>
+        <v>9.1780075708728894</v>
       </c>
       <c r="L16" s="0">
-        <v>7.6466457534421064</v>
+        <v>9.0377464061489459</v>
       </c>
       <c r="M16" s="0">
-        <v>7.6068659857205505</v>
+        <v>8.9937648004816975</v>
       </c>
       <c r="N16" s="0">
-        <v>7.5496624982384866</v>
+        <v>8.937861149220133</v>
       </c>
       <c r="O16" s="0">
-        <v>7.3960771240423329</v>
+        <v>8.7895822197436519</v>
       </c>
       <c r="P16" s="0">
-        <v>7.1654737964696347</v>
+        <v>8.5601581739779267</v>
       </c>
       <c r="Q16" s="0">
-        <v>6.8799972854402567</v>
+        <v>8.2657031611862539</v>
       </c>
       <c r="R16" s="0">
-        <v>6.5611196860261245</v>
+        <v>7.9264849502681374</v>
       </c>
       <c r="S16" s="0">
-        <v>6.2286614801639653</v>
+        <v>7.5637884032726266</v>
       </c>
       <c r="T16" s="0">
-        <v>5.8982547012847979</v>
+        <v>7.1959375540699977</v>
       </c>
       <c r="U16" s="0">
-        <v>5.5806856407616445</v>
+        <v>6.8366907249171964</v>
       </c>
       <c r="V16" s="0">
-        <v>5.3006007129668946</v>
+        <v>6.5132120374109252</v>
       </c>
       <c r="W16" s="0">
-        <v>5.0985436919348644</v>
+        <v>6.2600535776298187</v>
       </c>
       <c r="X16" s="0">
-        <v>4.9474387740624426</v>
+        <v>6.0613991469532334</v>
       </c>
       <c r="Y16" s="0">
-        <v>4.8321269309229038</v>
+        <v>5.90476150048028</v>
       </c>
       <c r="Z16" s="0">
-        <v>4.7424519241103846</v>
+        <v>5.7797643151879576</v>
       </c>
       <c r="AA16" s="0">
-        <v>4.670524304007178</v>
+        <v>5.6777789070592633</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>8.8551195381442778</v>
+        <v>11.993337844045694</v>
       </c>
       <c r="B17" s="0">
-        <v>8.1742627771829568</v>
+        <v>11.034848163322369</v>
       </c>
       <c r="C17" s="0">
-        <v>7.583352837717265</v>
+        <v>10.121479086370039</v>
       </c>
       <c r="D17" s="0">
-        <v>7.1677429123056804</v>
+        <v>9.540499495312103</v>
       </c>
       <c r="E17" s="0">
-        <v>7.000523461717961</v>
+        <v>9.2566978528752753</v>
       </c>
       <c r="F17" s="0">
-        <v>6.8195654320421211</v>
+        <v>8.9794755511915039</v>
       </c>
       <c r="G17" s="0">
-        <v>6.648519779644662</v>
+        <v>8.7149099870632707</v>
       </c>
       <c r="H17" s="0">
-        <v>7.0703260321682384</v>
+        <v>9.0135254597876475</v>
       </c>
       <c r="I17" s="0">
-        <v>7.9685512228791149</v>
+        <v>9.7321629183341205</v>
       </c>
       <c r="J17" s="0">
-        <v>8.6602776527190635</v>
+        <v>10.139060615075765</v>
       </c>
       <c r="K17" s="0">
-        <v>8.3979909044843239</v>
+        <v>9.7243432638506349</v>
       </c>
       <c r="L17" s="0">
-        <v>8.2900089031251376</v>
+        <v>9.5911141704955547</v>
       </c>
       <c r="M17" s="0">
-        <v>8.2223991104489418</v>
+        <v>9.5399932826538461</v>
       </c>
       <c r="N17" s="0">
-        <v>8.1327903439158966</v>
+        <v>9.4804910130728555</v>
       </c>
       <c r="O17" s="0">
-        <v>7.941300648075762</v>
+        <v>9.3363317243717639</v>
       </c>
       <c r="P17" s="0">
-        <v>7.6868861974395015</v>
+        <v>9.1073323826798518</v>
       </c>
       <c r="Q17" s="0">
-        <v>7.3967043614628683</v>
+        <v>8.8081524578852779</v>
       </c>
       <c r="R17" s="0">
-        <v>7.0760309248193378</v>
+        <v>8.4735801425314321</v>
       </c>
       <c r="S17" s="0">
-        <v>6.6807498074288221</v>
+        <v>8.1121766442307113</v>
       </c>
       <c r="T17" s="0">
-        <v>6.3479849054244815</v>
+        <v>7.7422931447650312</v>
       </c>
       <c r="U17" s="0">
-        <v>5.9965829812240612</v>
+        <v>7.3784968254641115</v>
       </c>
       <c r="V17" s="0">
-        <v>5.6914048611784791</v>
+        <v>7.0189920867508633</v>
       </c>
       <c r="W17" s="0">
-        <v>5.4745815468983326</v>
+        <v>6.73233788076457</v>
       </c>
       <c r="X17" s="0">
-        <v>5.318501268596223</v>
+        <v>6.526063347698555</v>
       </c>
       <c r="Y17" s="0">
-        <v>5.1998619453875898</v>
+        <v>6.3460111799688086</v>
       </c>
       <c r="Z17" s="0">
-        <v>5.0987129250689032</v>
+        <v>6.1965268390569639</v>
       </c>
       <c r="AA17" s="0">
-        <v>5.0193853887423163</v>
+        <v>6.0748291936453391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>9.5055595496441736</v>
+        <v>12.247342944937913</v>
       </c>
       <c r="B18" s="0">
-        <v>8.9081310755130065</v>
+        <v>11.382236834208474</v>
       </c>
       <c r="C18" s="0">
-        <v>8.3473299741028217</v>
+        <v>10.579548253339098</v>
       </c>
       <c r="D18" s="0">
-        <v>7.9853054229151113</v>
+        <v>10.074233863428315</v>
       </c>
       <c r="E18" s="0">
-        <v>7.8113472838402016</v>
+        <v>9.8398194370890888</v>
       </c>
       <c r="F18" s="0">
-        <v>7.6246707452298041</v>
+        <v>9.597976802534248</v>
       </c>
       <c r="G18" s="0">
-        <v>7.4317735579081923</v>
+        <v>9.359689718675158</v>
       </c>
       <c r="H18" s="0">
-        <v>7.8225713089141618</v>
+        <v>9.6546932129549283</v>
       </c>
       <c r="I18" s="0">
-        <v>8.6914134329271775</v>
+        <v>10.357254130730897</v>
       </c>
       <c r="J18" s="0">
-        <v>9.2968884255954318</v>
+        <v>10.783910765010335</v>
       </c>
       <c r="K18" s="0">
-        <v>8.9709952412460901</v>
+        <v>10.383115918067555</v>
       </c>
       <c r="L18" s="0">
-        <v>8.8609256316688079</v>
+        <v>10.234151088773643</v>
       </c>
       <c r="M18" s="0">
-        <v>8.8334457231761068</v>
+        <v>10.193134326729259</v>
       </c>
       <c r="N18" s="0">
-        <v>8.7851942990064096</v>
+        <v>10.1473136402759</v>
       </c>
       <c r="O18" s="0">
-        <v>8.6271264012969109</v>
+        <v>10.008879414472181</v>
       </c>
       <c r="P18" s="0">
-        <v>8.3721554480736735</v>
+        <v>9.7798396110215045</v>
       </c>
       <c r="Q18" s="0">
-        <v>8.0424075046219397</v>
+        <v>9.4730257327938041</v>
       </c>
       <c r="R18" s="0">
-        <v>7.6631665753580736</v>
+        <v>9.1083808145888678</v>
       </c>
       <c r="S18" s="0">
-        <v>7.2597995139080407</v>
+        <v>8.7091436649305205</v>
       </c>
       <c r="T18" s="0">
-        <v>6.8536585058434687</v>
+        <v>8.2968650068626033</v>
       </c>
       <c r="U18" s="0">
-        <v>6.4608902819990179</v>
+        <v>7.8888346855377876</v>
       </c>
       <c r="V18" s="0">
-        <v>6.1101932611883516</v>
+        <v>7.5141177931495884</v>
       </c>
       <c r="W18" s="0">
-        <v>5.8472739895126882</v>
+        <v>7.2178190046485753</v>
       </c>
       <c r="X18" s="0">
-        <v>5.6476295961285112</v>
+        <v>6.981535637650758</v>
       </c>
       <c r="Y18" s="0">
-        <v>5.4946955288297561</v>
+        <v>6.7924428705744146</v>
       </c>
       <c r="Z18" s="0">
-        <v>5.3762198352487092</v>
+        <v>6.6400078607097406</v>
       </c>
       <c r="AA18" s="0">
-        <v>5.2823849334837592</v>
+        <v>6.5149783278058306</v>
       </c>
     </row>
   </sheetData>
